--- a/dial/outputs/dial_ratio_by_deal_6M_edit.xlsx
+++ b/dial/outputs/dial_ratio_by_deal_6M_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hzeng\Desktop\howard-toolbox\dial\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE3E4A7-FEAE-48FD-BF13-4D11712A15E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEA2999-65B9-45F2-9296-2C09ECD6B1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15345" yWindow="-150" windowWidth="44655" windowHeight="21285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4965" yWindow="-20595" windowWidth="49725" windowHeight="21285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STACR" sheetId="1" r:id="rId1"/>
@@ -672,9 +672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
         <v>0.78783123830167434</v>
       </c>
       <c r="M5" s="5">
-        <v>0.8105837886765761</v>
+        <v>0.81058378867657599</v>
       </c>
       <c r="N5" s="5">
         <v>0.78783123830167434</v>
@@ -933,11 +933,11 @@
         <v>1.3151039891753009</v>
       </c>
       <c r="N6" s="9">
-        <v>1.3151039891753009</v>
+        <v>1.3151039891753</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="0"/>
-        <v>-0.13806837222871704</v>
+        <v>-0.13806837222871793</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -979,11 +979,11 @@
         <v>0.68948767601745409</v>
       </c>
       <c r="N7" s="5">
-        <v>0.68948767601745409</v>
+        <v>0.68948767601745398</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="0"/>
-        <v>0.10035644676503208</v>
+        <v>0.10035644676503197</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1025,11 +1025,11 @@
         <v>0.85454022157930476</v>
       </c>
       <c r="N8" s="9">
-        <v>0.90961034143516595</v>
+        <v>0.85454022157930498</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5.5070119855860966E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1209,11 +1209,11 @@
         <v>0.44183307923031739</v>
       </c>
       <c r="N12" s="9">
-        <v>0.44183307923031739</v>
+        <v>0.44183307923031701</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" si="0"/>
-        <v>-0.17841554226918582</v>
+        <v>-0.17841554226918621</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1255,11 +1255,11 @@
         <v>1.0224798890822071</v>
       </c>
       <c r="N13" s="5">
-        <v>1.0224798890822071</v>
+        <v>1.02247988908221</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="0"/>
-        <v>-8.0231689930026828E-2</v>
+        <v>-8.0231689930023942E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1393,11 +1393,11 @@
         <v>0.91520352396647675</v>
       </c>
       <c r="N16" s="9">
-        <v>0.99739489748299182</v>
+        <v>0.91520352396647697</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-8.2191373516514843E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1531,11 +1531,11 @@
         <v>1.7077763791853791</v>
       </c>
       <c r="N19" s="5">
-        <v>1.7077763791853791</v>
+        <v>1.7077763791853799</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="0"/>
-        <v>0.35615078370356312</v>
+        <v>0.35615078370356401</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1577,11 +1577,11 @@
         <v>1.352718341503433</v>
       </c>
       <c r="N20" s="9">
-        <v>1.352718341503433</v>
+        <v>1.3527183415034301</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" si="0"/>
-        <v>0.10953965558046597</v>
+        <v>0.10953965558046308</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1853,11 +1853,11 @@
         <v>1.487047447193091</v>
       </c>
       <c r="N26" s="9">
-        <v>1.487047447193091</v>
+        <v>1.4870474471930899</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" si="0"/>
-        <v>0.13605878111760705</v>
+        <v>0.13605878111760594</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2129,11 +2129,11 @@
         <v>1.138682291755128</v>
       </c>
       <c r="N32" s="9">
-        <v>1.138682291755128</v>
+        <v>1.13868229175513</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" si="0"/>
-        <v>0.13868929093000959</v>
+        <v>0.13868929093001159</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2175,11 +2175,11 @@
         <v>1.2109948087935949</v>
       </c>
       <c r="N33" s="5">
-        <v>1.2109948087935949</v>
+        <v>1.21099480879359</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="0"/>
-        <v>0.21099480879359489</v>
+        <v>0.21099480879359001</v>
       </c>
     </row>
   </sheetData>
@@ -2231,9 +2231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,11 +2584,11 @@
         <v>0.88759591484851674</v>
       </c>
       <c r="N8" s="9">
-        <v>0.88759591484851674</v>
+        <v>0.88759591484851696</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="0"/>
-        <v>-9.2184409017092683E-2</v>
+        <v>-9.2184409017092461E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2768,11 +2768,11 @@
         <v>0.39252693080556322</v>
       </c>
       <c r="N12" s="9">
-        <v>0.39252693080556322</v>
+        <v>0.392526930805563</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" si="0"/>
-        <v>-0.2279489182896971</v>
+        <v>-0.22794891828969732</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2814,11 +2814,11 @@
         <v>0.89398782046780623</v>
       </c>
       <c r="N13" s="5">
-        <v>0.89398782046780623</v>
+        <v>0.893987820467806</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="0"/>
-        <v>-8.5809093658035573E-2</v>
+        <v>-8.5809093658035795E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2998,11 +2998,11 @@
         <v>1.0561866341376711</v>
       </c>
       <c r="N17" s="5">
-        <v>1.0561866341376711</v>
+        <v>1.05618663413767</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="0"/>
-        <v>3.6246931001169047E-2</v>
+        <v>3.6246931001167937E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3274,11 +3274,11 @@
         <v>0.5226772929334651</v>
       </c>
       <c r="N23" s="5">
-        <v>0.60431452922472229</v>
+        <v>0.52267729293346499</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-8.1637236291257298E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3366,11 +3366,11 @@
         <v>1.320004151436504</v>
       </c>
       <c r="N25" s="5">
-        <v>1.320004151436504</v>
+        <v>1.3200041514365</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="0"/>
-        <v>-0.14646397947241008</v>
+        <v>-0.14646397947241407</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">

--- a/dial/outputs/dial_ratio_by_deal_6M_edit.xlsx
+++ b/dial/outputs/dial_ratio_by_deal_6M_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hzeng\Desktop\howard-toolbox\dial\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEA2999-65B9-45F2-9296-2C09ECD6B1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F57619-8639-4345-8FF5-53ADAB3FEA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4965" yWindow="-20595" windowWidth="49725" windowHeight="21285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-13125" windowWidth="44655" windowHeight="21285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STACR" sheetId="1" r:id="rId1"/>
@@ -674,7 +674,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4868,7 +4868,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:O20"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4992,11 +4992,11 @@
         <v>0.96398899888118861</v>
       </c>
       <c r="N3" s="5">
-        <v>0.96398899888118861</v>
+        <v>0.96398899888118905</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O20" si="0">N3-L3</f>
-        <v>0.10906315085985163</v>
+        <v>0.10906315085985208</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5176,11 +5176,11 @@
         <v>0.87660034734774628</v>
       </c>
       <c r="N7" s="5">
-        <v>0.87660034734774628</v>
+        <v>0.87660034734774595</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="0"/>
-        <v>-0.12252706367132027</v>
+        <v>-0.1225270636713206</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -5222,11 +5222,11 @@
         <v>0.67835769439909122</v>
       </c>
       <c r="N8" s="9">
-        <v>0.67835769439909122</v>
+        <v>0.67835769439909099</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="0"/>
-        <v>-0.1496749469444596</v>
+        <v>-0.14967494694445982</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -5268,11 +5268,11 @@
         <v>0.66123592422645716</v>
       </c>
       <c r="N9" s="5">
-        <v>0.66123592422645716</v>
+        <v>0.66123592422645705</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="0"/>
-        <v>-0.13928091965257428</v>
+        <v>-0.13928091965257439</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -5544,11 +5544,11 @@
         <v>0.68726931661501489</v>
       </c>
       <c r="N15" s="5">
-        <v>0.68726931661501489</v>
+        <v>0.687269316615015</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="0"/>
-        <v>0.43050228342449848</v>
+        <v>0.43050228342449859</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -5636,11 +5636,11 @@
         <v>0.61115427888447038</v>
       </c>
       <c r="N17" s="5">
-        <v>0.61115427888447038</v>
+        <v>0.61115427888447005</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="0"/>
-        <v>0.101619736169274</v>
+        <v>0.10161973616927367</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -5832,7 +5832,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dial/outputs/dial_ratio_by_deal_6M_edit.xlsx
+++ b/dial/outputs/dial_ratio_by_deal_6M_edit.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hzeng\Desktop\howard-toolbox\dial\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F57619-8639-4345-8FF5-53ADAB3FEA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2FA2FE-901D-417B-8018-90BB42578A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-13125" windowWidth="44655" windowHeight="21285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="-21750" windowWidth="49725" windowHeight="21285" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STACR" sheetId="1" r:id="rId1"/>
     <sheet name="CAS" sheetId="2" r:id="rId2"/>
     <sheet name="JUMBO" sheetId="3" r:id="rId3"/>
-    <sheet name="HE" sheetId="4" r:id="rId4"/>
-    <sheet name="NONQM" sheetId="5" r:id="rId5"/>
+    <sheet name="NONQM" sheetId="5" r:id="rId4"/>
+    <sheet name="HE" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CAS!$A$2:$O$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">HE!$A$2:$O$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CAS!$A$2:$O$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HE!$A$2:$O$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">JUMBO!$A$2:$O$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">NONQM!$A$2:$O$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">STACR!$A$2:$O$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NONQM!$A$2:$O$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">STACR!$A$2:$O$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="73">
   <si>
     <t>STACR</t>
   </si>
@@ -231,15 +231,50 @@
   <si>
     <t>NONQM</t>
   </si>
+  <si>
+    <t>DOCTYPE-1YDoc</t>
+  </si>
+  <si>
+    <t>DOCTYPE-2YDoc</t>
+  </si>
+  <si>
+    <t>DOCTYPE-BankStatement</t>
+  </si>
+  <si>
+    <t>DOCTYPE-CPA</t>
+  </si>
+  <si>
+    <t>DOCTYPE-DSCR</t>
+  </si>
+  <si>
+    <t>DOCTYPE-FULL</t>
+  </si>
+  <si>
+    <t>DOCTYPE-Investor</t>
+  </si>
+  <si>
+    <t>DOCTYPE-Other</t>
+  </si>
+  <si>
+    <t>DOCTYPE-VOE</t>
+  </si>
+  <si>
+    <t>Refi</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +293,19 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -283,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -330,11 +378,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -363,13 +449,52 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -670,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD8"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,23 +816,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -761,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -794,1400 +919,1444 @@
       <c r="M3" s="5">
         <v>1.2288966793154441</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="26">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O34" si="0">N3-L3</f>
+        <v>9.6870777690158505E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3">
+        <v>297039.39790400001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.51666531659444692</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.59928987815791968</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.73646534121562468</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.701547360995466</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.86212922230984146</v>
+      </c>
+      <c r="M4" s="5">
         <v>1.2288966793154441</v>
       </c>
-      <c r="O3" s="4">
-        <f t="shared" ref="O3:O33" si="0">N3-L3</f>
-        <v>0.36676745700560265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="N4" s="26">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2818707776901586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F5" s="7">
         <v>297039.39790400001</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G5" s="7">
         <v>250000</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H5" s="8">
         <v>0.6806772829482618</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I5" s="8">
         <v>0.56984031861662898</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J5" s="9">
         <v>0.56030309294018066</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K5" s="9">
         <v>1.214837632568508</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L5" s="9">
         <v>1.194505303873032</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M5" s="9">
         <v>0.98326333647362596</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N5" s="9">
         <v>0.98326333647362596</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O5" s="8">
         <f t="shared" si="0"/>
         <v>-0.21124196739940604</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3">
         <v>244431.8947722718</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <v>65363</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H6" s="4">
         <v>36.414121604936653</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I6" s="4">
         <v>46.220713059607128</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J6" s="5">
         <v>37.465760707189247</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K6" s="5">
         <v>0.97193066195901912</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L6" s="5">
         <v>0.78783123830167434</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M6" s="5">
         <v>0.81058378867657599</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N6" s="5">
         <v>0.78783123830167434</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
+      <c r="E7" s="6"/>
+      <c r="F7" s="7">
         <v>244431.8947722718</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="7">
         <v>65363</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H7" s="8">
         <v>18.93260463944873</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I7" s="8">
         <v>13.028464580179969</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J7" s="9">
         <v>17.13378574222379</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K7" s="9">
         <v>1.1049866576066729</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L7" s="9">
         <v>1.453172361404018</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M7" s="9">
         <v>1.3151039891753009</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N7" s="9">
         <v>1.3151039891753</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O7" s="8">
         <f t="shared" si="0"/>
         <v>-0.13806837222871793</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="3">
         <v>244431.8947722718</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <v>65363</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="4">
         <v>0.74549085575464202</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="4">
         <v>1.2654071261858459</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J8" s="5">
         <v>0.87248261864980403</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K8" s="5">
         <v>0.85444780196115999</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L8" s="5">
         <v>0.58913122925242201</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M8" s="5">
         <v>0.68948767601745409</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N8" s="5">
         <v>0.68948767601745398</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O8" s="4">
         <f t="shared" si="0"/>
         <v>0.10035644676503197</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7">
+      <c r="E9" s="6"/>
+      <c r="F9" s="7">
         <v>256139.01542854009</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>18213</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H9" s="8">
         <v>15.748229499640029</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="8">
         <v>17.31316013271438</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J9" s="9">
         <v>14.79479169604773</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K9" s="9">
         <v>1.064444151913744</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L9" s="9">
         <v>0.90961034143516595</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M9" s="9">
         <v>0.85454022157930476</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N9" s="9">
         <v>0.85454022157930498</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O9" s="8">
         <f t="shared" si="0"/>
         <v>-5.5070119855860966E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3">
+      <c r="E10" s="2"/>
+      <c r="F10" s="3">
         <v>256139.01542854009</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>18213</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="4">
         <v>14.19021990027891</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="4">
         <v>14.18573100519226</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J10" s="5">
         <v>14.13412204258718</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K10" s="5">
         <v>1.003968966556444</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L10" s="5">
         <v>1.0003164373471489</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M10" s="5">
         <v>0.99636191024726295</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N10" s="5">
         <v>1.0003164373471489</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7">
+      <c r="E11" s="6"/>
+      <c r="F11" s="7">
         <v>256139.01542854009</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <v>18213</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H11" s="8">
         <v>36.170527577691161</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I11" s="8">
         <v>36.183183667679863</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J11" s="9">
         <v>37.291864969974043</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K11" s="9">
         <v>0.9699307773106618</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L11" s="9">
         <v>0.99965022176862761</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M11" s="9">
         <v>1.0306407891709231</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N11" s="9">
         <v>0.99965022176862761</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3">
+      <c r="E12" s="2"/>
+      <c r="F12" s="3">
         <v>256139.01542854009</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="3">
         <v>18213</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="4">
         <v>1.173813118670338</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="4">
         <v>0.94579786366649343</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J12" s="5">
         <v>1.1619292736734721</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K12" s="5">
         <v>1.0102276836173469</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L12" s="5">
         <v>1.241082438186017</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M12" s="5">
         <v>1.228517549372675</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N12" s="5">
         <v>1.241082438186017</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7">
+      <c r="E13" s="6"/>
+      <c r="F13" s="7">
         <v>256139.01542854009</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="7">
         <v>18213</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H13" s="8">
         <v>1.5622384341302351E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I13" s="8">
         <v>2.5187293933090771E-2</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J13" s="9">
         <v>1.1128579635936589E-2</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K13" s="9">
         <v>1.403807570451695</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L13" s="9">
         <v>0.62024862149950322</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M13" s="9">
         <v>0.44183307923031739</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N13" s="9">
         <v>0.44183307923031701</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O13" s="8">
         <f t="shared" si="0"/>
         <v>-0.17841554226918621</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3">
+      <c r="E14" s="2"/>
+      <c r="F14" s="3">
         <v>271579.11586500128</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <v>22578</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="4">
         <v>13.485642355468579</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="4">
         <v>12.22952820314854</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J14" s="5">
         <v>12.504446640683041</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K14" s="5">
         <v>1.0784677437539081</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L14" s="5">
         <v>1.1027115790122339</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M14" s="5">
         <v>1.0224798890822071</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N14" s="5">
         <v>1.02247988908221</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O14" s="4">
         <f t="shared" si="0"/>
         <v>-8.0231689930023942E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7">
+      <c r="E15" s="6"/>
+      <c r="F15" s="7">
         <v>271579.11586500128</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="7">
         <v>22578</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H15" s="8">
         <v>1.0810313249372641</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15" s="8">
         <v>0.97698862677859222</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J15" s="9">
         <v>1.073943031130171</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K15" s="9">
         <v>1.0066002512252761</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L15" s="9">
         <v>1.1064932541760799</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M15" s="9">
         <v>1.0992380071723711</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N15" s="9">
         <v>1.1064932541760799</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3">
+      <c r="E16" s="2"/>
+      <c r="F16" s="3">
         <v>271579.11586500128</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="3">
         <v>22578</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <v>2.34077251756037</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>2.4213781076208858</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J16" s="5">
         <v>2.3478405358098589</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K16" s="5">
         <v>0.99698956630925895</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L16" s="5">
         <v>0.96671086196458822</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M16" s="5">
         <v>0.96962986838793197</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N16" s="5">
         <v>0.96671086196458822</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7">
+      <c r="E17" s="6"/>
+      <c r="F17" s="7">
         <v>271579.11586500128</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G17" s="7">
         <v>22578</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="8">
         <v>3.1201013979583681</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="8">
         <v>3.128250812022602</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J17" s="9">
         <v>2.862986167014077</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K17" s="9">
         <v>1.0898066619764519</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L17" s="9">
         <v>0.99739489748299182</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M17" s="9">
         <v>0.91520352396647675</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N17" s="9">
         <v>0.91520352396647697</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O17" s="8">
         <f t="shared" si="0"/>
         <v>-8.2191373516514843E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3">
+      <c r="E18" s="2"/>
+      <c r="F18" s="3">
         <v>271579.11586500128</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <v>22578</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="4">
         <v>50.829688803761812</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="4">
         <v>55.070615635091933</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J18" s="5">
         <v>51.183012327385804</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K18" s="5">
         <v>0.99309685953292481</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L18" s="5">
         <v>0.92299111273003953</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M18" s="5">
         <v>0.92940693938367958</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N18" s="5">
         <v>0.92299111273003953</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O18" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7">
+      <c r="E19" s="6"/>
+      <c r="F19" s="7">
         <v>271579.11586500128</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G19" s="7">
         <v>22578</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <v>3.9067573518493002</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I19" s="8">
         <v>4.2323481216485339</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J19" s="9">
         <v>3.8282315081008109</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K19" s="9">
         <v>1.020512302764951</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L19" s="9">
         <v>0.92307089104182338</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M19" s="9">
         <v>0.90451716117569358</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N19" s="9">
         <v>0.92307089104182338</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3">
+      <c r="E20" s="2"/>
+      <c r="F20" s="3">
         <v>271579.11586500128</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <v>22578</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <v>3.4255875933268429</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="4">
         <v>2.5344204821052672</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J20" s="5">
         <v>4.3282234342629966</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K20" s="5">
         <v>0.79145350173220608</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L20" s="5">
         <v>1.3516255954818159</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M20" s="5">
         <v>1.7077763791853791</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N20" s="5">
         <v>1.7077763791853799</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O20" s="4">
         <f t="shared" si="0"/>
         <v>0.35615078370356401</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7">
+      <c r="E21" s="6"/>
+      <c r="F21" s="7">
         <v>271579.11586500128</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="7">
         <v>22578</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="8">
         <v>1.1931172066117059</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I21" s="8">
         <v>0.9597310669189163</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J21" s="9">
         <v>1.2982458171318769</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K21" s="9">
         <v>0.91902256942955229</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L21" s="9">
         <v>1.243178685922967</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M21" s="9">
         <v>1.352718341503433</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N21" s="9">
         <v>1.3527183415034301</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O21" s="8">
         <f t="shared" si="0"/>
         <v>0.10953965558046308</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3">
+      <c r="E22" s="2"/>
+      <c r="F22" s="3">
         <v>271579.11586500128</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <v>22578</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="4">
         <v>1.3430785791942569E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="4">
         <v>8.2754076373936815E-3</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="5">
         <v>7.981046971655862E-3</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K22" s="5">
         <v>1.682835076605999</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L22" s="5">
         <v>1.6229757349056171</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M22" s="5">
         <v>0.96442946636154736</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N22" s="5">
         <v>1</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O22" s="4">
         <f t="shared" si="0"/>
         <v>-0.62297573490561708</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7">
+      <c r="E23" s="6"/>
+      <c r="F23" s="7">
         <v>293565.54720744683</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G23" s="7">
         <v>4512</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H23" s="8">
         <v>10.534417286636989</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I23" s="8">
         <v>10.89383877417534</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J23" s="9">
         <v>11.30722180157488</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K23" s="9">
         <v>0.9316538997377537</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L23" s="9">
         <v>0.96700690225098695</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M23" s="9">
         <v>1.037946497645944</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N23" s="9">
         <v>1.037946497645944</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O23" s="8">
         <f t="shared" si="0"/>
         <v>7.0939595394957089E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3">
+      <c r="E24" s="2"/>
+      <c r="F24" s="3">
         <v>293565.54720744683</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="3">
         <v>4512</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <v>0.98270880317681975</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="4">
         <v>1.1985880732024641</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J24" s="5">
         <v>0.79279359394175941</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K24" s="5">
         <v>1.239551896844681</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L24" s="5">
         <v>0.81988868832238204</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M24" s="5">
         <v>0.66143958184359597</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N24" s="5">
         <v>0.66143958184359597</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O24" s="4">
         <f t="shared" si="0"/>
         <v>-0.15844910647878607</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7">
+      <c r="E25" s="6"/>
+      <c r="F25" s="7">
         <v>293565.54720744683</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G25" s="7">
         <v>4512</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="8">
         <v>0.5207469263464265</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I25" s="8">
         <v>0.62391988795006015</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J25" s="9">
         <v>0.56536063034549788</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K25" s="9">
         <v>0.92108806024960121</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L25" s="9">
         <v>0.8346374853627172</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M25" s="9">
         <v>0.90614298608598054</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N25" s="9">
         <v>0.90614298608598054</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O25" s="8">
         <f t="shared" si="0"/>
         <v>7.1505500723263338E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3">
+      <c r="E26" s="2"/>
+      <c r="F26" s="3">
         <v>293565.54720744683</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="3">
         <v>4512</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H26" s="4">
         <v>81.159266457864121</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I26" s="4">
         <v>82.108503793543221</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J26" s="5">
         <v>78.459774822525986</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K26" s="5">
         <v>1.0344060589192909</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L26" s="5">
         <v>0.98843923233498565</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M26" s="5">
         <v>0.95556210620775972</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N26" s="5">
         <v>0.98843923233498565</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7">
+      <c r="E27" s="6"/>
+      <c r="F27" s="7">
         <v>293565.54720744683</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="7">
         <v>4512</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="8">
         <v>5.7035739487186037</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I27" s="8">
         <v>4.2217777927678988</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J27" s="9">
         <v>6.2779838893519866</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K27" s="9">
         <v>0.90850407539152278</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L27" s="9">
         <v>1.350988666075484</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M27" s="9">
         <v>1.487047447193091</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N27" s="9">
         <v>1.4870474471930899</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O27" s="8">
         <f t="shared" si="0"/>
         <v>0.13605878111760594</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3">
+      <c r="E28" s="2"/>
+      <c r="F28" s="3">
         <v>293565.54720744683</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G28" s="3">
         <v>4512</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H28" s="4">
         <v>0.97365989310058398</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I28" s="4">
         <v>0.87689996533627723</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J28" s="5">
         <v>0.95616905602323066</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K28" s="5">
         <v>1.0182926198742499</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L28" s="5">
         <v>1.110343176632697</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M28" s="5">
         <v>1.090396959539798</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N28" s="5">
         <v>1.110343176632697</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O28" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7">
+      <c r="E29" s="6"/>
+      <c r="F29" s="7">
         <v>293565.54720744683</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G29" s="7">
         <v>4512</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H29" s="8">
         <v>0.12562668415649081</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I29" s="8">
         <v>7.6471713025587376E-2</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J29" s="9">
         <v>0.46811673235505219</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K29" s="9">
         <v>0.26836614774369311</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L29" s="9">
         <v>1.6427863217142289</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M29" s="9">
         <v>6.1214364610666001</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N29" s="9">
         <v>1.6427863217142289</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3">
+      <c r="E30" s="2"/>
+      <c r="F30" s="3">
         <v>250854.58190649669</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="3">
         <v>8235</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <v>4.9072174033745322</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="4">
         <v>4.9079627927565843</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J30" s="5">
         <v>4.6064601743881237</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K30" s="5">
         <v>1.0652903135163561</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L30" s="5">
         <v>0.99984812652142507</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M30" s="5">
         <v>0.93856868295468066</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N30" s="5">
         <v>0.99984812652142507</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7">
+      <c r="E31" s="6"/>
+      <c r="F31" s="7">
         <v>250854.58190649669</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="7">
         <v>8235</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H31" s="8">
         <v>1.4804726519506199</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I31" s="8">
         <v>1.095900930072528</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J31" s="9">
         <v>1.2096648701305861</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K31" s="9">
         <v>1.223870088738545</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L31" s="9">
         <v>1.3509183278571011</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M31" s="9">
         <v>1.1038085988762949</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N31" s="9">
         <v>1.1038085988762949</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O31" s="8">
         <f t="shared" si="0"/>
         <v>-0.24710972898080619</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3">
+      <c r="E32" s="2"/>
+      <c r="F32" s="3">
         <v>250854.58190649669</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G32" s="3">
         <v>8235</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="4">
         <v>1.4058529331177001</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="4">
         <v>1.954971072968672</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J32" s="5">
         <v>1.36847830193659</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K32" s="5">
         <v>1.027311087890995</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L32" s="5">
         <v>0.71911700001927747</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M32" s="5">
         <v>0.69999925874019275</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N32" s="5">
         <v>0.71911700001927747</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O32" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7">
+      <c r="E33" s="6"/>
+      <c r="F33" s="7">
         <v>250854.58190649669</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="7">
         <v>8235</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H33" s="8">
         <v>3.5480799497955098</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I33" s="8">
         <v>3.548104783601389</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J33" s="9">
         <v>4.0401640863785619</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K33" s="9">
         <v>0.87820194277699848</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L33" s="9">
         <v>0.99999300082511844</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M33" s="9">
         <v>1.138682291755128</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N33" s="9">
         <v>1.13868229175513</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O33" s="8">
         <f t="shared" si="0"/>
         <v>0.13868929093001159</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3">
+      <c r="E34" s="2"/>
+      <c r="F34" s="3">
         <v>217528.40904716071</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G34" s="3">
         <v>1039</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="4">
         <v>7.3562135776500206</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="4">
         <v>7.3562135776500206</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J34" s="5">
         <v>8.9083364549111348</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K34" s="5">
         <v>0.82576737136983258</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L34" s="5">
         <v>1</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M34" s="5">
         <v>1.2109948087935949</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N34" s="5">
         <v>1.21099480879359</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O34" s="4">
         <f t="shared" si="0"/>
         <v>0.21099480879359001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O33" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:O34" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G33">
+  <conditionalFormatting sqref="G3:G34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2199,7 +2368,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K33">
+  <conditionalFormatting sqref="K3:K34">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0.6"/>
@@ -2211,7 +2380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O33">
+  <conditionalFormatting sqref="O3:O34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="-0.5"/>
@@ -2224,16 +2393,17 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,23 +2420,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2320,7 +2490,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -2353,1262 +2523,1342 @@
       <c r="M3" s="5">
         <v>1.2198392667436351</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="26">
+        <v>1.105</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O31" si="0">N3-L3</f>
+        <v>0.24287425730582013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3">
+        <v>297039.39790400001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>250000</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.51666531659444692</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.59928987815791968</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.73646534121562468</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.701547360995466</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.86212922230984146</v>
+      </c>
+      <c r="M4" s="5">
         <v>1.2198392667436351</v>
       </c>
-      <c r="O3" s="4">
-        <f t="shared" ref="O3:O30" si="0">N3-L3</f>
-        <v>0.35771352404945522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="N4" s="26">
+        <v>2.008</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1458707776901584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F5" s="7">
         <v>303330.53888000001</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G5" s="7">
         <v>250000</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H5" s="8">
         <v>0.55174590943214985</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I5" s="8">
         <v>0.4324839408400824</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J5" s="9">
         <v>0.53044467222065561</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K5" s="9">
         <v>1.0401573214456441</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L5" s="9">
         <v>1.2757604556608639</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M5" s="9">
         <v>1.226507211320468</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N5" s="9">
         <v>1.226507211320468</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O5" s="8">
         <f t="shared" si="0"/>
         <v>-4.9253244340395907E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3">
         <v>251206.08660217229</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <v>62331</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H6" s="4">
         <v>36.101347336034152</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I6" s="4">
         <v>45.818706567799133</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J6" s="5">
         <v>35.281392226255157</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K6" s="5">
         <v>1.0232404408681131</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L6" s="5">
         <v>0.78791720762815609</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M6" s="5">
         <v>0.77002156693463986</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N6" s="5">
         <v>0.78791720762815609</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
+      <c r="E7" s="6"/>
+      <c r="F7" s="7">
         <v>251206.08660217229</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="7">
         <v>62331</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H7" s="8">
         <v>18.9028055983771</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I7" s="8">
         <v>13.00762064742654</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J7" s="9">
         <v>18.516017921357651</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K7" s="9">
         <v>1.020889355295628</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L7" s="9">
         <v>1.4532100920483779</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M7" s="9">
         <v>1.4234746248554611</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N7" s="9">
         <v>1.4532100920483779</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="3">
         <v>251206.08660217229</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <v>62331</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="4">
         <v>0.81199769808455635</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="4">
         <v>1.3775964561675049</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J8" s="5">
         <v>0.91098081240184725</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K8" s="5">
         <v>0.89134445756731484</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L8" s="5">
         <v>0.58943073964021842</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M8" s="5">
         <v>0.66128277865653784</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N8" s="5">
         <v>0.58943073964021842</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7">
+      <c r="E9" s="6"/>
+      <c r="F9" s="7">
         <v>259328.93180812741</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>15823</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H9" s="8">
         <v>15.963072833830539</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="8">
         <v>16.292501946609921</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J9" s="9">
         <v>14.461158170472469</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K9" s="9">
         <v>1.1038585323286729</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L9" s="9">
         <v>0.97978032386560943</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M9" s="9">
         <v>0.88759591484851674</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N9" s="9">
         <v>0.88759591484851696</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O9" s="8">
         <f t="shared" si="0"/>
         <v>-9.2184409017092461E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3">
+      <c r="E10" s="2"/>
+      <c r="F10" s="3">
         <v>259328.93180812741</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>15823</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="4">
         <v>13.35060112076547</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="4">
         <v>13.34901998679844</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J10" s="5">
         <v>13.350320119936089</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K10" s="5">
         <v>1.0000210482465479</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L10" s="5">
         <v>1.0001184456962831</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M10" s="5">
         <v>1.0000973953997321</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N10" s="5">
         <v>1.0000973953997321</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O10" s="4">
         <f t="shared" si="0"/>
         <v>-2.1050296550972902E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7">
+      <c r="E11" s="6"/>
+      <c r="F11" s="7">
         <v>259328.93180812741</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <v>15823</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H11" s="8">
         <v>37.493400575155427</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I11" s="8">
         <v>37.498513956605663</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J11" s="9">
         <v>38.029023681156339</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K11" s="9">
         <v>0.9859154126466223</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L11" s="9">
         <v>0.99986363775758824</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M11" s="9">
         <v>1.0141474866221261</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N11" s="9">
         <v>0.99986363775758824</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3">
+      <c r="E12" s="2"/>
+      <c r="F12" s="3">
         <v>259328.93180812741</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="3">
         <v>15823</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="4">
         <v>1.1030876640790539</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="4">
         <v>0.99359904357488216</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J12" s="5">
         <v>1.1594139468183109</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K12" s="5">
         <v>0.95141831535334787</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L12" s="5">
         <v>1.1101939672870871</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M12" s="5">
         <v>1.1668831147892831</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N12" s="5">
         <v>1.1101939672870871</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7">
+      <c r="E13" s="6"/>
+      <c r="F13" s="7">
         <v>259328.93180812741</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="7">
         <v>15823</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H13" s="8">
         <v>1.851104464645004E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I13" s="8">
         <v>2.9833626358611219E-2</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J13" s="9">
         <v>1.171050178934561E-2</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K13" s="9">
         <v>1.5807217298998799</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L13" s="9">
         <v>0.62047584909526032</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M13" s="9">
         <v>0.39252693080556322</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N13" s="9">
         <v>0.392526930805563</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O13" s="8">
         <f t="shared" si="0"/>
         <v>-0.22794891828969732</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3">
+      <c r="E14" s="2"/>
+      <c r="F14" s="3">
         <v>274580.05843677669</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <v>19012</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="4">
         <v>13.168180452523879</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="4">
         <v>13.43970394545722</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J14" s="5">
         <v>12.01493163793187</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K14" s="5">
         <v>1.0959846338993</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L14" s="5">
         <v>0.9797969141258418</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M14" s="5">
         <v>0.89398782046780623</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N14" s="5">
         <v>0.893987820467806</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O14" s="4">
         <f t="shared" si="0"/>
         <v>-8.5809093658035795E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7">
+      <c r="E15" s="6"/>
+      <c r="F15" s="7">
         <v>274580.05843677669</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="7">
         <v>19012</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H15" s="8">
         <v>1.018817521093619</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15" s="8">
         <v>0.98784211412454292</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J15" s="9">
         <v>0.99865163506419385</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K15" s="9">
         <v>1.0201931137159039</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L15" s="9">
         <v>1.031356637387876</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M15" s="9">
         <v>1.0109425593271359</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N15" s="9">
         <v>1.031356637387876</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3">
+      <c r="E16" s="2"/>
+      <c r="F16" s="3">
         <v>274580.05843677669</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="3">
         <v>19012</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <v>2.2544385024894629</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>2.4097713021482359</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J16" s="5">
         <v>2.213942780966426</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K16" s="5">
         <v>1.0182912231838981</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L16" s="5">
         <v>0.93554043924404817</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M16" s="5">
         <v>0.91873564059492485</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N16" s="5">
         <v>0.93554043924404817</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7">
+      <c r="E17" s="6"/>
+      <c r="F17" s="7">
         <v>274580.05843677669</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G17" s="7">
         <v>19012</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="8">
         <v>2.9854258986611928</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="8">
         <v>3.2775385615314292</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J17" s="9">
         <v>2.583756657520702</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K17" s="9">
         <v>1.155459392807495</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L17" s="9">
         <v>0.91087437801685334</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M17" s="9">
         <v>0.78832227569992097</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N17" s="9">
         <v>0.78832227569992097</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O17" s="8">
         <f t="shared" si="0"/>
         <v>-0.12255210231693237</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3">
+      <c r="E18" s="2"/>
+      <c r="F18" s="3">
         <v>274580.05843677669</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <v>19012</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="4">
         <v>54.310717401043433</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="4">
         <v>53.248949162414213</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J18" s="5">
         <v>56.240828387218187</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K18" s="5">
         <v>0.96568132010990404</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L18" s="5">
         <v>1.0199397031365021</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M18" s="5">
         <v>1.0561866341376711</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N18" s="5">
         <v>1.05618663413767</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O18" s="4">
         <f t="shared" si="0"/>
         <v>3.6246931001167937E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7">
+      <c r="E19" s="6"/>
+      <c r="F19" s="7">
         <v>274580.05843677669</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G19" s="7">
         <v>19012</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <v>4.1643290768954602</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I19" s="8">
         <v>4.0828652669421546</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J19" s="9">
         <v>4.2494075336902384</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K19" s="9">
         <v>0.97997874853841205</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L19" s="9">
         <v>1.0199526079424901</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M19" s="9">
         <v>1.0407905370026611</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N19" s="9">
         <v>1.0407905370026611</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O19" s="8">
         <f t="shared" si="0"/>
         <v>2.0837929060171012E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3">
+      <c r="E20" s="2"/>
+      <c r="F20" s="3">
         <v>274580.05843677669</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <v>19012</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <v>1.305272416989018</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="4">
         <v>1.1112828546208491</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J20" s="5">
         <v>1.298527874091788</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K20" s="5">
         <v>1.0051939916206629</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L20" s="5">
         <v>1.1745636239788431</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M20" s="5">
         <v>1.1684944734748239</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N20" s="5">
         <v>1.1745636239788431</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7">
+      <c r="E21" s="6"/>
+      <c r="F21" s="7">
         <v>274580.05843677669</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="7">
         <v>19012</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="8">
         <v>1.3350751613368751E-2</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I21" s="8">
         <v>8.2204686280904337E-3</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J21" s="9">
         <v>3.4145987056507662E-2</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K21" s="9">
         <v>0.39099035536078658</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L21" s="9">
         <v>1.6240864380587079</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M21" s="9">
         <v>4.1537762141474852</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N21" s="9">
         <v>1.6240864380587079</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3">
+      <c r="E22" s="2"/>
+      <c r="F22" s="3">
         <v>291094.31946072693</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <v>5118</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="4">
         <v>7.4668845583718078</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="4">
         <v>9.1878695886290398</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="5">
         <v>7.2719719570096117</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K22" s="5">
         <v>1.0268032663649529</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L22" s="5">
         <v>0.81268943647315883</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M22" s="5">
         <v>0.7914753128417763</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N22" s="5">
         <v>0.81268943647315883</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7">
+      <c r="E23" s="6"/>
+      <c r="F23" s="7">
         <v>291094.31946072693</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G23" s="7">
         <v>5118</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H23" s="8">
         <v>0.67826342944598361</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I23" s="8">
         <v>1.1684439405358511</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J23" s="9">
         <v>0.641514031954738</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K23" s="9">
         <v>1.0572854149102049</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L23" s="9">
         <v>0.58048435694307299</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M23" s="9">
         <v>0.54903278599787875</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N23" s="9">
         <v>0.58048435694307299</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3">
+      <c r="E24" s="2"/>
+      <c r="F24" s="3">
         <v>291094.31946072693</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="3">
         <v>5118</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <v>0.31613202885648589</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="4">
         <v>0.52312498470300395</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J24" s="5">
         <v>0.27342555087042641</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K24" s="5">
         <v>1.1561905163950741</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L24" s="5">
         <v>0.60431452922472229</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M24" s="5">
         <v>0.5226772929334651</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N24" s="5">
         <v>0.52267729293346499</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O24" s="4">
         <f t="shared" si="0"/>
         <v>-8.1637236291257298E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7">
+      <c r="E25" s="6"/>
+      <c r="F25" s="7">
         <v>291094.31946072693</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G25" s="7">
         <v>5118</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="8">
         <v>82.705489671585553</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I25" s="8">
         <v>82.693942406003103</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J25" s="9">
         <v>87.854935383013952</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K25" s="9">
         <v>0.94138695010156481</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L25" s="9">
         <v>1.0001396385907659</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M25" s="9">
         <v>1.0624107743185329</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N25" s="9">
         <v>1</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O25" s="8">
         <f t="shared" si="0"/>
         <v>-1.3963859076593366E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3">
+      <c r="E26" s="2"/>
+      <c r="F26" s="3">
         <v>291094.31946072693</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="3">
         <v>5118</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H26" s="4">
         <v>1.3671911064464779</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I26" s="4">
         <v>0.93230195571934815</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J26" s="5">
         <v>1.230642451941911</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K26" s="5">
         <v>1.1109572112428741</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L26" s="5">
         <v>1.466468130908914</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M26" s="5">
         <v>1.320004151436504</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N26" s="5">
         <v>1.3200041514365</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O26" s="4">
         <f t="shared" si="0"/>
         <v>-0.14646397947241407</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7">
+      <c r="E27" s="6"/>
+      <c r="F27" s="7">
         <v>291094.31946072693</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="7">
         <v>5118</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="8">
         <v>0.26847605780621231</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I27" s="8">
         <v>0.16400237028543591</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J27" s="9">
         <v>0.76716320090286561</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K27" s="9">
         <v>0.34995950990642649</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L27" s="9">
         <v>1.6370254731010681</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M27" s="9">
         <v>4.6777567883175477</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N27" s="9">
         <v>1.6370254731010681</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3">
+      <c r="E28" s="2"/>
+      <c r="F28" s="3">
         <v>258794.42626480089</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G28" s="3">
         <v>3716</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H28" s="4">
         <v>5.793440409932324</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I28" s="4">
         <v>5.7933789973742229</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J28" s="5">
         <v>8.6495205388264154</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K28" s="5">
         <v>0.66979902341712805</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L28" s="5">
         <v>1.00001060047308</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M28" s="5">
         <v>1.493000983147607</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N28" s="5">
         <v>1.00001060047308</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O28" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7">
+      <c r="E29" s="6"/>
+      <c r="F29" s="7">
         <v>258794.42626480089</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G29" s="7">
         <v>3716</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H29" s="8">
         <v>0.90218188753677275</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I29" s="8">
         <v>1.255062020166456</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J29" s="9">
         <v>1.0247354280006491</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K29" s="9">
         <v>0.88040470045718089</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L29" s="9">
         <v>0.71883450621597023</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M29" s="9">
         <v>0.81648190410920141</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N29" s="9">
         <v>0.71883450621597023</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3">
+      <c r="E30" s="2"/>
+      <c r="F30" s="3">
         <v>258794.42626480089</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="3">
         <v>3716</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <v>3.664022607506833</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="4">
         <v>3.6639118684926242</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J30" s="5">
         <v>1.969674502193637</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K30" s="5">
         <v>1.8602173117569389</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L30" s="5">
         <v>1.000030224257074</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M30" s="5">
         <v>0.53758784951450911</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N30" s="5">
         <v>1.000030224257074</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7">
+      <c r="E31" s="6"/>
+      <c r="F31" s="7">
         <v>183447.81627296589</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="7">
         <v>762</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H31" s="8">
         <v>7.7660267821655866</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I31" s="8">
         <v>7.7660267821655866</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J31" s="9">
         <v>5.6688456390188291</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K31" s="9">
         <v>1.3699485356792569</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L31" s="9">
         <v>1</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M31" s="9">
         <v>0.72995442818162026</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N31" s="9">
         <v>0.72995442818162026</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O31" s="8">
         <f t="shared" si="0"/>
         <v>-0.27004557181837974</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O30" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:O31" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G30">
+  <conditionalFormatting sqref="G5:G31 G3">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K31 K3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="1.4"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O31 O3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="-0.5"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3620,7 +3870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K30">
+  <conditionalFormatting sqref="K4">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0.6"/>
@@ -3632,7 +3882,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O30">
+  <conditionalFormatting sqref="O4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="-0.5"/>
@@ -3672,23 +3922,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4863,12 +5113,1895 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O45"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3">
+        <v>408789.07597484282</v>
+      </c>
+      <c r="G3" s="3">
+        <v>143100</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.506144138948283</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.2515688766459629</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.978612767031358</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.76121218059663531</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.2034049160638669</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1.5809060164022111</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1.5809060164022111</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O45" si="0">N3-L3</f>
+        <v>0.37750110033834416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7">
+        <v>408789.07597484282</v>
+      </c>
+      <c r="G4" s="7">
+        <v>143100</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.334644238236097</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1.0687645812171129</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1.2850023989749491</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1.0386317094043931</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1.248772893199922</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1.2023250223277271</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1.248772893199922</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3">
+        <v>426533.71064467769</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3335</v>
+      </c>
+      <c r="H5" s="4">
+        <v>32.759875221762179</v>
+      </c>
+      <c r="I5" s="4">
+        <v>38.540890217639891</v>
+      </c>
+      <c r="J5" s="5">
+        <v>33.542992859551518</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.97665331650433385</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.85000307561054256</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.87032221285327571</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.85000307561054256</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
+        <v>426533.71064467769</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3335</v>
+      </c>
+      <c r="H6" s="8">
+        <v>32.759875221762179</v>
+      </c>
+      <c r="I6" s="8">
+        <v>38.540890217639891</v>
+      </c>
+      <c r="J6" s="9">
+        <v>33.542992859551518</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.97665331650433385</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.85000307561054256</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.87032221285327571</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.85000307561054256</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3">
+        <v>426533.71064467769</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3335</v>
+      </c>
+      <c r="H7" s="4">
+        <v>28.396832840545489</v>
+      </c>
+      <c r="I7" s="4">
+        <v>24.90949382153962</v>
+      </c>
+      <c r="J7" s="5">
+        <v>24.84104610366801</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1.1431415859878959</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1.140000396796113</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.99725214336501611</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.14000039679611298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7">
+        <v>426533.71064467769</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3335</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.589702383966048</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.5896974804253401</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1.807284460918632</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.87960828433063154</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1.0000030845747501</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1.136873199569439</v>
+      </c>
+      <c r="N8" s="9">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="0"/>
+        <v>-3.0845747500674037E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3">
+        <v>460436.64433811803</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1254</v>
+      </c>
+      <c r="H9" s="4">
+        <v>13.73010728807772</v>
+      </c>
+      <c r="I9" s="4">
+        <v>13.73011271856457</v>
+      </c>
+      <c r="J9" s="5">
+        <v>12.77093567415279</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1.0751058214055691</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.99999960448344705</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.93014062855326196</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9551655295344545E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7">
+        <v>460436.64433811803</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1254</v>
+      </c>
+      <c r="H10" s="8">
+        <v>10.89793977669777</v>
+      </c>
+      <c r="I10" s="8">
+        <v>12.973728123463349</v>
+      </c>
+      <c r="J10" s="9">
+        <v>12.98246570633593</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.83943528318963023</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.84000062842295409</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1.0006734828099859</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1.0006734828099859</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16067285438703183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3">
+        <v>460436.64433811803</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1254</v>
+      </c>
+      <c r="H11" s="4">
+        <v>40.075107418794389</v>
+      </c>
+      <c r="I11" s="4">
+        <v>40.075121520102492</v>
+      </c>
+      <c r="J11" s="5">
+        <v>34.244313766265748</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1.170270418976028</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.99999964812812614</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.85450305494614942</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.85450305494614942</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.14549659318197672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7">
+        <v>460436.64433811803</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1254</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1.8406724806776991</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1.8406730830676989</v>
+      </c>
+      <c r="J12" s="9">
+        <v>2.3906251463887291</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.76995445457361367</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.99999967273384605</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1.2987776962568871</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1.2987776962568871</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.29877802352304106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3">
+        <v>460436.64433811803</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1254</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2.3268163103236601E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2.326818713263613E-2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>8.3582207458828819</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2.7838655870267731E-3</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.99999896728527271</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0327147272892745E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1029</v>
+      </c>
+      <c r="H14" s="8">
+        <v>5.8588176272664283</v>
+      </c>
+      <c r="I14" s="8">
+        <v>5.8081112166073217</v>
+      </c>
+      <c r="J14" s="9">
+        <v>6.4580642575948239</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.90720955902170397</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1.0087302754317311</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1.1119043724798301</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1.0087302754317311</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1029</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.337828237001097</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.465919596317969</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1.6004127350510069</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1.460765829838631</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1.5947861280203559</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1.0917465999300731</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.59478612802035591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1029</v>
+      </c>
+      <c r="H16" s="8">
+        <v>4.0474481450061637</v>
+      </c>
+      <c r="I16" s="8">
+        <v>3.0772149375937099</v>
+      </c>
+      <c r="J16" s="9">
+        <v>4.1080516303842627</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.98524763298254103</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1.3152958851067931</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1.3349901497607559</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1.3152958851067931</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1029</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3.2413494657517039</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2.1038669232065081</v>
+      </c>
+      <c r="J17" s="5">
+        <v>3.1125011024108131</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1.041397049864847</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1.540662781470777</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1.4794191914320529</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1.540662781470777</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1029</v>
+      </c>
+      <c r="H18" s="8">
+        <v>48.152480255391417</v>
+      </c>
+      <c r="I18" s="8">
+        <v>65.004304342998935</v>
+      </c>
+      <c r="J18" s="9">
+        <v>47.572361382326733</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1.0121944519087971</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.74075833503750932</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.73183402027207978</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.74075833503750932</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1029</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3.5789322071884011</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3.5320050236233742</v>
+      </c>
+      <c r="J19" s="5">
+        <v>3.0228420072683511</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1.1839627074729491</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1.013286273165287</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.85584306563848311</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1.013286273165287</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1029</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1.9575019014637749</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1.953978003153251</v>
+      </c>
+      <c r="J20" s="9">
+        <v>2.6046342261121191</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.75154579550530409</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1.001803448301279</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1.3329905566535889</v>
+      </c>
+      <c r="N20" s="9">
+        <v>1.001803448301279</v>
+      </c>
+      <c r="O20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1029</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.22571451106405421</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.63419329818588643</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5.0754988337155657E-3</v>
+      </c>
+      <c r="K21" s="5">
+        <v>44.471394528686723</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.35590806731908381</v>
+      </c>
+      <c r="M21" s="5">
+        <v>8.0030786327040335E-3</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.35590806731908381</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7">
+        <v>590924.57142857148</v>
+      </c>
+      <c r="G22" s="7">
+        <v>287</v>
+      </c>
+      <c r="H22" s="8">
+        <v>3.127292976195879</v>
+      </c>
+      <c r="I22" s="8">
+        <v>7.0336232768454421</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1.6834939783769101</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1.8576205298999431</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.44462048265946652</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.23934946642919319</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0.44462048265946652</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3">
+        <v>590924.57142857148</v>
+      </c>
+      <c r="G23" s="3">
+        <v>287</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.37338120175775719</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.37800115726567918</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.1748183646965934</v>
+      </c>
+      <c r="K23" s="5">
+        <v>2.13582367279193</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.98777793290015015</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.46248103037875571</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.98777793290015015</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7">
+        <v>590924.57142857148</v>
+      </c>
+      <c r="G24" s="7">
+        <v>287</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.48636691937188847</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1.6995945169682549</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0.18834719648289891</v>
+      </c>
+      <c r="K24" s="9">
+        <v>2.5822891365205352</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.28616644412307951</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.1108189009804959</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0.28616644412307951</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="13">
+        <v>590924.57142857148</v>
+      </c>
+      <c r="G25" s="3">
+        <v>287</v>
+      </c>
+      <c r="H25" s="4">
+        <v>92.520382560995898</v>
+      </c>
+      <c r="I25" s="4">
+        <v>85.3168943982906</v>
+      </c>
+      <c r="J25" s="5">
+        <v>78.558525269179242</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1.1777255523060881</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1.084432142232894</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.9207851015115387</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.443214223289397E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="14">
+        <v>590924.57142857148</v>
+      </c>
+      <c r="G26" s="12">
+        <v>287</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1.3141783279146559</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1.312977207019876</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1.095322499477523</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1.1998094885675481</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1.0009148071180201</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.83422811425921606</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.1480711802005565E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="15">
+        <v>590924.57142857148</v>
+      </c>
+      <c r="G27" s="13">
+        <v>287</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1.1365323775961631</v>
+      </c>
+      <c r="I27" s="4">
+        <v>3.2170659856731829</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.21293275093183989</v>
+      </c>
+      <c r="K27" s="5">
+        <v>5.3375179375763029</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.35328227106859889</v>
+      </c>
+      <c r="M27" s="5">
+        <v>6.6188493453385899E-2</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.35328227106859889</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="16">
+        <v>563310.05303606112</v>
+      </c>
+      <c r="G28" s="16">
+        <v>23682</v>
+      </c>
+      <c r="L28" s="19">
+        <v>1.46</v>
+      </c>
+      <c r="M28" s="18">
+        <v>1.8757824494845647</v>
+      </c>
+      <c r="N28" s="18">
+        <v>1.8757824494845647</v>
+      </c>
+      <c r="O28" s="20">
+        <f t="shared" si="0"/>
+        <v>0.41578244948456478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="16">
+        <v>618774.81793103449</v>
+      </c>
+      <c r="G29" s="16">
+        <v>3625</v>
+      </c>
+      <c r="L29" s="21">
+        <v>1.35</v>
+      </c>
+      <c r="M29" s="18">
+        <v>1.9090690073763774</v>
+      </c>
+      <c r="N29" s="18">
+        <v>1.75</v>
+      </c>
+      <c r="O29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="16">
+        <v>580871.35372059525</v>
+      </c>
+      <c r="G30" s="16">
+        <v>10415</v>
+      </c>
+      <c r="L30" s="19">
+        <v>1.17</v>
+      </c>
+      <c r="M30" s="18">
+        <v>1.5429749863728117</v>
+      </c>
+      <c r="N30" s="18">
+        <v>1.5429749863728117</v>
+      </c>
+      <c r="O30" s="20">
+        <f t="shared" si="0"/>
+        <v>0.37297498637281179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="16">
+        <v>590682.8455764075</v>
+      </c>
+      <c r="G31" s="16">
+        <v>1865</v>
+      </c>
+      <c r="L31" s="21">
+        <v>1.77</v>
+      </c>
+      <c r="M31" s="18">
+        <v>2.9798324151035613</v>
+      </c>
+      <c r="N31" s="18">
+        <v>2</v>
+      </c>
+      <c r="O31" s="22">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="16">
+        <v>294811.50603251968</v>
+      </c>
+      <c r="G32" s="16">
+        <v>50062</v>
+      </c>
+      <c r="L32" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="M32" s="18">
+        <v>1.1723423661324466</v>
+      </c>
+      <c r="N32" s="18">
+        <v>1.1723423661324466</v>
+      </c>
+      <c r="O32" s="20">
+        <f t="shared" si="0"/>
+        <v>0.12234236613244653</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="16">
+        <v>441292.65545564587</v>
+      </c>
+      <c r="G33" s="16">
+        <v>11566</v>
+      </c>
+      <c r="L33" s="21">
+        <v>1.34</v>
+      </c>
+      <c r="M33" s="18">
+        <v>2.3062879776210434</v>
+      </c>
+      <c r="N33" s="18">
+        <v>2</v>
+      </c>
+      <c r="O33" s="22">
+        <f t="shared" si="0"/>
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="16">
+        <v>339880.16376328142</v>
+      </c>
+      <c r="G34" s="16">
+        <v>16188</v>
+      </c>
+      <c r="L34" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="M34" s="18">
+        <v>1.0203679822336391</v>
+      </c>
+      <c r="N34" s="18">
+        <v>1.0203679822336391</v>
+      </c>
+      <c r="O34" s="20">
+        <f t="shared" si="0"/>
+        <v>5.0367982233639141E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="16">
+        <v>392581.43689462868</v>
+      </c>
+      <c r="G35" s="16">
+        <v>20442</v>
+      </c>
+      <c r="L35" s="21">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M35" s="18">
+        <v>1.5286165142488224</v>
+      </c>
+      <c r="N35" s="18">
+        <v>1.5286165142488224</v>
+      </c>
+      <c r="O35" s="22">
+        <f t="shared" si="0"/>
+        <v>0.37861651424882248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="16">
+        <v>451565.44890580402</v>
+      </c>
+      <c r="G36" s="16">
+        <v>5255</v>
+      </c>
+      <c r="L36" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="M36" s="18">
+        <v>1.235494837675347</v>
+      </c>
+      <c r="N36" s="18">
+        <v>1.235494837675347</v>
+      </c>
+      <c r="O36" s="20">
+        <f t="shared" si="0"/>
+        <v>0.33549483767534694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37">
+        <v>563310.05303606112</v>
+      </c>
+      <c r="G37">
+        <v>23682</v>
+      </c>
+      <c r="L37" s="21">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M37" s="18">
+        <v>1.1669628555435489</v>
+      </c>
+      <c r="N37" s="18">
+        <v>1.1669628555435489</v>
+      </c>
+      <c r="O37" s="22">
+        <f t="shared" si="0"/>
+        <v>1.6962855543549038E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38">
+        <v>618774.81793103449</v>
+      </c>
+      <c r="G38">
+        <v>3625</v>
+      </c>
+      <c r="L38" s="19">
+        <v>1.32</v>
+      </c>
+      <c r="M38" s="18">
+        <v>1.2422164313353015</v>
+      </c>
+      <c r="N38" s="18">
+        <v>1.2422164313353015</v>
+      </c>
+      <c r="O38" s="20">
+        <f t="shared" si="0"/>
+        <v>-7.7783568664698599E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39">
+        <v>580871.35372059525</v>
+      </c>
+      <c r="G39">
+        <v>10415</v>
+      </c>
+      <c r="L39" s="21">
+        <v>1.24</v>
+      </c>
+      <c r="M39" s="18">
+        <v>1.0878734295345482</v>
+      </c>
+      <c r="N39" s="18">
+        <v>1.0878734295345482</v>
+      </c>
+      <c r="O39" s="22">
+        <f t="shared" si="0"/>
+        <v>-0.15212657046545175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40">
+        <v>590682.8455764075</v>
+      </c>
+      <c r="G40">
+        <v>1865</v>
+      </c>
+      <c r="L40" s="19">
+        <v>1.17</v>
+      </c>
+      <c r="M40" s="18">
+        <v>1.0843300140348211</v>
+      </c>
+      <c r="N40" s="18">
+        <v>1.0843300140348211</v>
+      </c>
+      <c r="O40" s="20">
+        <f t="shared" si="0"/>
+        <v>-8.566998596517883E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41">
+        <v>294811.50603251968</v>
+      </c>
+      <c r="G41">
+        <v>50062</v>
+      </c>
+      <c r="L41" s="21">
+        <v>1.24</v>
+      </c>
+      <c r="M41" s="18">
+        <v>1.2095924767566302</v>
+      </c>
+      <c r="N41" s="18">
+        <v>1.2095924767566302</v>
+      </c>
+      <c r="O41" s="22">
+        <f t="shared" si="0"/>
+        <v>-3.0407523243369816E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42">
+        <v>441292.65545564587</v>
+      </c>
+      <c r="G42">
+        <v>11566</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="M42" s="18">
+        <v>0.93914652849348201</v>
+      </c>
+      <c r="N42" s="18">
+        <v>0.93914652849348201</v>
+      </c>
+      <c r="O42" s="20">
+        <f t="shared" si="0"/>
+        <v>9.1465284934819646E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43">
+        <v>339880.16376328142</v>
+      </c>
+      <c r="G43">
+        <v>16188</v>
+      </c>
+      <c r="L43" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="M43" s="18">
+        <v>1.350929273771875</v>
+      </c>
+      <c r="N43" s="18">
+        <v>1.350929273771875</v>
+      </c>
+      <c r="O43" s="22">
+        <f t="shared" si="0"/>
+        <v>-4.9070726228124917E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44">
+        <v>392581.43689462868</v>
+      </c>
+      <c r="G44">
+        <v>20442</v>
+      </c>
+      <c r="L44" s="19">
+        <v>1.52</v>
+      </c>
+      <c r="M44" s="18">
+        <v>1.4233355426573264</v>
+      </c>
+      <c r="N44" s="18">
+        <v>1.4233355426573264</v>
+      </c>
+      <c r="O44" s="20">
+        <f t="shared" si="0"/>
+        <v>-9.6664457342673593E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45">
+        <v>451565.44890580402</v>
+      </c>
+      <c r="G45">
+        <v>5255</v>
+      </c>
+      <c r="L45">
+        <v>1.19</v>
+      </c>
+      <c r="M45" s="18">
+        <v>1.1061996645820804</v>
+      </c>
+      <c r="N45" s="18">
+        <v>1.1061996645820804</v>
+      </c>
+      <c r="O45" s="20">
+        <f t="shared" si="0"/>
+        <v>-8.3800335417919536E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:O27" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:G27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K27">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="1.4"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O45">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="-0.5"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4888,23 +7021,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5038,11 +7171,11 @@
         <v>1.2632819626951579</v>
       </c>
       <c r="N4" s="9">
-        <v>1.2632819626951579</v>
+        <v>1.05</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="0"/>
-        <v>0.26368160260365281</v>
+        <v>5.0399639908494942E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -5084,11 +7217,11 @@
         <v>1.121061670910817</v>
       </c>
       <c r="N5" s="5">
-        <v>1.121061670910817</v>
+        <v>1</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>0.12012457003503396</v>
+        <v>-9.371008757830257E-4</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -5130,11 +7263,11 @@
         <v>1.121061670910817</v>
       </c>
       <c r="N6" s="9">
-        <v>1.121061670910817</v>
+        <v>1</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="0"/>
-        <v>0.12012457003503396</v>
+        <v>-9.371008757830257E-4</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -5176,11 +7309,11 @@
         <v>0.87660034734774628</v>
       </c>
       <c r="N7" s="5">
-        <v>0.87660034734774595</v>
+        <v>1</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="0"/>
-        <v>-0.1225270636713206</v>
+        <v>8.7258898093345305E-4</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -5216,17 +7349,17 @@
         <v>1.2206431034545071</v>
       </c>
       <c r="L8" s="9">
-        <v>0.82803264134355081</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="M8" s="9">
         <v>0.67835769439909122</v>
       </c>
       <c r="N8" s="9">
-        <v>0.67835769439909099</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="0"/>
-        <v>-0.14967494694445982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -5268,11 +7401,11 @@
         <v>0.66123592422645716</v>
       </c>
       <c r="N9" s="5">
-        <v>0.66123592422645705</v>
+        <v>0.80051684387903144</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="0"/>
-        <v>-0.13928091965257439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -5728,11 +7861,11 @@
         <v>2.192488747154806</v>
       </c>
       <c r="N19" s="5">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="0"/>
-        <v>0.52879507974621298</v>
+        <v>0.22879507974621294</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -5774,11 +7907,11 @@
         <v>2.8700546932650099</v>
       </c>
       <c r="N20" s="9">
-        <v>0.98401042015072571</v>
+        <v>1</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5989579849274294E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5823,1290 +7956,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O27"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="9" width="21" customWidth="1"/>
-    <col min="10" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="15" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3">
-        <v>408789.07597484282</v>
-      </c>
-      <c r="G3" s="3">
-        <v>143100</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1.506144138948283</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1.2515688766459629</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1.978612767031358</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.76121218059663531</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1.2034049160638669</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1.5809060164022111</v>
-      </c>
-      <c r="N3" s="5">
-        <v>1.5809060164022111</v>
-      </c>
-      <c r="O3" s="4">
-        <f t="shared" ref="O3:O27" si="0">N3-L3</f>
-        <v>0.37750110033834416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7">
-        <v>408789.07597484282</v>
-      </c>
-      <c r="G4" s="7">
-        <v>143100</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1.334644238236097</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1.0687645812171129</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1.2850023989749491</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1.0386317094043931</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1.248772893199922</v>
-      </c>
-      <c r="M4" s="9">
-        <v>1.2023250223277271</v>
-      </c>
-      <c r="N4" s="9">
-        <v>1.248772893199922</v>
-      </c>
-      <c r="O4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3">
-        <v>426533.71064467769</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3335</v>
-      </c>
-      <c r="H5" s="4">
-        <v>32.759875221762179</v>
-      </c>
-      <c r="I5" s="4">
-        <v>38.540890217639891</v>
-      </c>
-      <c r="J5" s="5">
-        <v>33.542992859551518</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.97665331650433385</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.85000307561054256</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.87032221285327571</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0.85000307561054256</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
-        <v>426533.71064467769</v>
-      </c>
-      <c r="G6" s="7">
-        <v>3335</v>
-      </c>
-      <c r="H6" s="8">
-        <v>32.759875221762179</v>
-      </c>
-      <c r="I6" s="8">
-        <v>38.540890217639891</v>
-      </c>
-      <c r="J6" s="9">
-        <v>33.542992859551518</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0.97665331650433385</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0.85000307561054256</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0.87032221285327571</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0.85000307561054256</v>
-      </c>
-      <c r="O6" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3">
-        <v>426533.71064467769</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3335</v>
-      </c>
-      <c r="H7" s="4">
-        <v>28.396832840545489</v>
-      </c>
-      <c r="I7" s="4">
-        <v>24.90949382153962</v>
-      </c>
-      <c r="J7" s="5">
-        <v>24.84104610366801</v>
-      </c>
-      <c r="K7" s="5">
-        <v>1.1431415859878959</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1.140000396796113</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0.99725214336501611</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.14000039679611298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7">
-        <v>426533.71064467769</v>
-      </c>
-      <c r="G8" s="7">
-        <v>3335</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1.589702383966048</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1.5896974804253401</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1.807284460918632</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0.87960828433063154</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1.0000030845747501</v>
-      </c>
-      <c r="M8" s="9">
-        <v>1.136873199569439</v>
-      </c>
-      <c r="N8" s="9">
-        <v>1</v>
-      </c>
-      <c r="O8" s="8">
-        <f t="shared" si="0"/>
-        <v>-3.0845747500674037E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3">
-        <v>460436.64433811803</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1254</v>
-      </c>
-      <c r="H9" s="4">
-        <v>13.73010728807772</v>
-      </c>
-      <c r="I9" s="4">
-        <v>13.73011271856457</v>
-      </c>
-      <c r="J9" s="5">
-        <v>12.77093567415279</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1.0751058214055691</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0.99999960448344705</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0.93014062855326196</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="0"/>
-        <v>3.9551655295344545E-7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7">
-        <v>460436.64433811803</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1254</v>
-      </c>
-      <c r="H10" s="8">
-        <v>10.89793977669777</v>
-      </c>
-      <c r="I10" s="8">
-        <v>12.973728123463349</v>
-      </c>
-      <c r="J10" s="9">
-        <v>12.98246570633593</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0.83943528318963023</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0.84000062842295409</v>
-      </c>
-      <c r="M10" s="9">
-        <v>1.0006734828099859</v>
-      </c>
-      <c r="N10" s="9">
-        <v>1.0006734828099859</v>
-      </c>
-      <c r="O10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.16067285438703183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3">
-        <v>460436.64433811803</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1254</v>
-      </c>
-      <c r="H11" s="4">
-        <v>40.075107418794389</v>
-      </c>
-      <c r="I11" s="4">
-        <v>40.075121520102492</v>
-      </c>
-      <c r="J11" s="5">
-        <v>34.244313766265748</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1.170270418976028</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0.99999964812812614</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.85450305494614942</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0.85450305494614942</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.14549659318197672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7">
-        <v>460436.64433811803</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1254</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1.8406724806776991</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1.8406730830676989</v>
-      </c>
-      <c r="J12" s="9">
-        <v>2.3906251463887291</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0.76995445457361367</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0.99999967273384605</v>
-      </c>
-      <c r="M12" s="9">
-        <v>1.2987776962568871</v>
-      </c>
-      <c r="N12" s="9">
-        <v>1.2987776962568871</v>
-      </c>
-      <c r="O12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.29877802352304106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3">
-        <v>460436.64433811803</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1254</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2.3268163103236601E-2</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2.326818713263613E-2</v>
-      </c>
-      <c r="J13" s="5">
-        <v>8.3582207458828819</v>
-      </c>
-      <c r="K13" s="5">
-        <v>2.7838655870267731E-3</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0.99999896728527271</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0327147272892745E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1029</v>
-      </c>
-      <c r="H14" s="8">
-        <v>5.8588176272664283</v>
-      </c>
-      <c r="I14" s="8">
-        <v>5.8081112166073217</v>
-      </c>
-      <c r="J14" s="9">
-        <v>6.4580642575948239</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0.90720955902170397</v>
-      </c>
-      <c r="L14" s="9">
-        <v>1.0087302754317311</v>
-      </c>
-      <c r="M14" s="9">
-        <v>1.1119043724798301</v>
-      </c>
-      <c r="N14" s="9">
-        <v>1.0087302754317311</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1029</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2.337828237001097</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.465919596317969</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1.6004127350510069</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1.460765829838631</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1.5947861280203559</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1.0917465999300731</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.59478612802035591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1029</v>
-      </c>
-      <c r="H16" s="8">
-        <v>4.0474481450061637</v>
-      </c>
-      <c r="I16" s="8">
-        <v>3.0772149375937099</v>
-      </c>
-      <c r="J16" s="9">
-        <v>4.1080516303842627</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0.98524763298254103</v>
-      </c>
-      <c r="L16" s="9">
-        <v>1.3152958851067931</v>
-      </c>
-      <c r="M16" s="9">
-        <v>1.3349901497607559</v>
-      </c>
-      <c r="N16" s="9">
-        <v>1.3152958851067931</v>
-      </c>
-      <c r="O16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1029</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3.2413494657517039</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2.1038669232065081</v>
-      </c>
-      <c r="J17" s="5">
-        <v>3.1125011024108131</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1.041397049864847</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1.540662781470777</v>
-      </c>
-      <c r="M17" s="5">
-        <v>1.4794191914320529</v>
-      </c>
-      <c r="N17" s="5">
-        <v>1.540662781470777</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1029</v>
-      </c>
-      <c r="H18" s="8">
-        <v>48.152480255391417</v>
-      </c>
-      <c r="I18" s="8">
-        <v>65.004304342998935</v>
-      </c>
-      <c r="J18" s="9">
-        <v>47.572361382326733</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1.0121944519087971</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0.74075833503750932</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0.73183402027207978</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0.74075833503750932</v>
-      </c>
-      <c r="O18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1029</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3.5789322071884011</v>
-      </c>
-      <c r="I19" s="4">
-        <v>3.5320050236233742</v>
-      </c>
-      <c r="J19" s="5">
-        <v>3.0228420072683511</v>
-      </c>
-      <c r="K19" s="5">
-        <v>1.1839627074729491</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1.013286273165287</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0.85584306563848311</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1.013286273165287</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1029</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1.9575019014637749</v>
-      </c>
-      <c r="I20" s="8">
-        <v>1.953978003153251</v>
-      </c>
-      <c r="J20" s="9">
-        <v>2.6046342261121191</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0.75154579550530409</v>
-      </c>
-      <c r="L20" s="9">
-        <v>1.001803448301279</v>
-      </c>
-      <c r="M20" s="9">
-        <v>1.3329905566535889</v>
-      </c>
-      <c r="N20" s="9">
-        <v>1.001803448301279</v>
-      </c>
-      <c r="O20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1029</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.22571451106405421</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.63419329818588643</v>
-      </c>
-      <c r="J21" s="5">
-        <v>5.0754988337155657E-3</v>
-      </c>
-      <c r="K21" s="5">
-        <v>44.471394528686723</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0.35590806731908381</v>
-      </c>
-      <c r="M21" s="5">
-        <v>8.0030786327040335E-3</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0.35590806731908381</v>
-      </c>
-      <c r="O21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7">
-        <v>590924.57142857148</v>
-      </c>
-      <c r="G22" s="7">
-        <v>287</v>
-      </c>
-      <c r="H22" s="8">
-        <v>3.127292976195879</v>
-      </c>
-      <c r="I22" s="8">
-        <v>7.0336232768454421</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1.6834939783769101</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1.8576205298999431</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0.44462048265946652</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0.23934946642919319</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0.44462048265946652</v>
-      </c>
-      <c r="O22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3">
-        <v>590924.57142857148</v>
-      </c>
-      <c r="G23" s="3">
-        <v>287</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0.37338120175775719</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.37800115726567918</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0.1748183646965934</v>
-      </c>
-      <c r="K23" s="5">
-        <v>2.13582367279193</v>
-      </c>
-      <c r="L23" s="5">
-        <v>0.98777793290015015</v>
-      </c>
-      <c r="M23" s="5">
-        <v>0.46248103037875571</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0.98777793290015015</v>
-      </c>
-      <c r="O23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7">
-        <v>590924.57142857148</v>
-      </c>
-      <c r="G24" s="7">
-        <v>287</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0.48636691937188847</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1.6995945169682549</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0.18834719648289891</v>
-      </c>
-      <c r="K24" s="9">
-        <v>2.5822891365205352</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0.28616644412307951</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0.1108189009804959</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0.28616644412307951</v>
-      </c>
-      <c r="O24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3">
-        <v>590924.57142857148</v>
-      </c>
-      <c r="G25" s="3">
-        <v>287</v>
-      </c>
-      <c r="H25" s="4">
-        <v>92.520382560995898</v>
-      </c>
-      <c r="I25" s="4">
-        <v>85.3168943982906</v>
-      </c>
-      <c r="J25" s="5">
-        <v>78.558525269179242</v>
-      </c>
-      <c r="K25" s="5">
-        <v>1.1777255523060881</v>
-      </c>
-      <c r="L25" s="5">
-        <v>1.084432142232894</v>
-      </c>
-      <c r="M25" s="5">
-        <v>0.9207851015115387</v>
-      </c>
-      <c r="N25" s="5">
-        <v>1</v>
-      </c>
-      <c r="O25" s="4">
-        <f t="shared" si="0"/>
-        <v>-8.443214223289397E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7">
-        <v>590924.57142857148</v>
-      </c>
-      <c r="G26" s="7">
-        <v>287</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1.3141783279146559</v>
-      </c>
-      <c r="I26" s="8">
-        <v>1.312977207019876</v>
-      </c>
-      <c r="J26" s="9">
-        <v>1.095322499477523</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1.1998094885675481</v>
-      </c>
-      <c r="L26" s="9">
-        <v>1.0009148071180201</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0.83422811425921606</v>
-      </c>
-      <c r="N26" s="9">
-        <v>1</v>
-      </c>
-      <c r="O26" s="8">
-        <f t="shared" si="0"/>
-        <v>-9.1480711802005565E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3">
-        <v>590924.57142857148</v>
-      </c>
-      <c r="G27" s="3">
-        <v>287</v>
-      </c>
-      <c r="H27" s="4">
-        <v>1.1365323775961631</v>
-      </c>
-      <c r="I27" s="4">
-        <v>3.2170659856731829</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0.21293275093183989</v>
-      </c>
-      <c r="K27" s="5">
-        <v>5.3375179375763029</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0.35328227106859889</v>
-      </c>
-      <c r="M27" s="5">
-        <v>6.6188493453385899E-2</v>
-      </c>
-      <c r="N27" s="5">
-        <v>0.35328227106859889</v>
-      </c>
-      <c r="O27" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:O27" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:G27">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K27">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0.6"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="1.4"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O27">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="-0.5"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dial/outputs/dial_ratio_by_deal_6M_edit.xlsx
+++ b/dial/outputs/dial_ratio_by_deal_6M_edit.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hzeng\Desktop\howard-toolbox\dial\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2FA2FE-901D-417B-8018-90BB42578A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0099ACE-AA94-4E73-805D-0806747D0448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="-21750" windowWidth="49725" windowHeight="21285" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15345" yWindow="-150" windowWidth="44655" windowHeight="21285" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STACR" sheetId="1" r:id="rId1"/>
     <sheet name="CAS" sheetId="2" r:id="rId2"/>
-    <sheet name="JUMBO" sheetId="3" r:id="rId3"/>
-    <sheet name="NONQM" sheetId="5" r:id="rId4"/>
+    <sheet name="NONQM" sheetId="5" r:id="rId3"/>
+    <sheet name="JUMBO" sheetId="3" r:id="rId4"/>
     <sheet name="HE" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CAS!$A$2:$O$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CAS!$A$2:$O$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HE!$A$2:$O$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">JUMBO!$A$2:$O$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NONQM!$A$2:$O$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">STACR!$A$2:$O$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">JUMBO!$A$2:$O$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NONQM!$A$2:$O$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">STACR!$A$2:$O$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="75">
   <si>
     <t>STACR</t>
   </si>
@@ -264,6 +264,12 @@
   <si>
     <t>Turn</t>
   </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +280,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,8 +313,39 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +365,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -416,11 +458,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -484,17 +527,59 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -795,11 +880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,28 +896,29 @@
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="10" width="22" customWidth="1"/>
     <col min="11" max="12" width="20" customWidth="1"/>
-    <col min="13" max="14" width="21" customWidth="1"/>
+    <col min="13" max="13" width="21" style="28" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -871,7 +957,7 @@
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="24" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -892,9 +978,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="3">
         <v>297039.39790400001</v>
       </c>
@@ -916,14 +1000,14 @@
       <c r="L3" s="5">
         <v>0.86212922230984146</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="25">
         <v>1.2288966793154441</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="23">
         <v>0.95899999999999996</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O34" si="0">N3-L3</f>
+        <f t="shared" ref="O3:O35" si="0">N3-L3</f>
         <v>9.6870777690158505E-2</v>
       </c>
     </row>
@@ -934,11 +1018,11 @@
       <c r="B4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="3">
         <v>297039.39790400001</v>
       </c>
@@ -960,15 +1044,15 @@
       <c r="L4" s="5">
         <v>0.86212922230984146</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="29">
         <v>1.2288966793154441</v>
       </c>
-      <c r="N4" s="26">
-        <v>2.1440000000000001</v>
+      <c r="N4" s="23">
+        <v>1.75</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>1.2818707776901586</v>
+        <v>0.88787077769015854</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -976,15 +1060,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="7">
         <v>297039.39790400001</v>
       </c>
@@ -1006,1357 +1088,1401 @@
       <c r="L5" s="9">
         <v>1.194505303873032</v>
       </c>
-      <c r="M5" s="9">
-        <v>0.98326333647362596</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0.98326333647362596</v>
+      <c r="M5" s="26">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="N5" s="23">
+        <v>1.2090000000000001</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" si="0"/>
-        <v>-0.21124196739940604</v>
+        <v>1.4494696126968076E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
+        <v>297039.39790400001</v>
+      </c>
+      <c r="G6" s="7">
+        <v>250000</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.6806772829482618</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.56984031861662898</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.56030309294018066</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1.214837632568508</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1.194505303873032</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.42550530387303198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3">
+      <c r="E7" s="2"/>
+      <c r="F7" s="3">
         <v>244431.8947722718</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="3">
         <v>65363</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="4">
         <v>36.414121604936653</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="4">
         <v>46.220713059607128</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J7" s="5">
         <v>37.465760707189247</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K7" s="5">
         <v>0.97193066195901912</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L7" s="5">
         <v>0.78783123830167434</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M7" s="29">
         <v>0.81058378867657599</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N7" s="5">
         <v>0.78783123830167434</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7">
+      <c r="E8" s="6"/>
+      <c r="F8" s="7">
         <v>244431.8947722718</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="7">
         <v>65363</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H8" s="8">
         <v>18.93260463944873</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I8" s="8">
         <v>13.028464580179969</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J8" s="9">
         <v>17.13378574222379</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K8" s="9">
         <v>1.1049866576066729</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L8" s="9">
         <v>1.453172361404018</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M8" s="30">
         <v>1.3151039891753009</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N8" s="9">
         <v>1.3151039891753</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O8" s="8">
         <f t="shared" si="0"/>
         <v>-0.13806837222871793</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="3">
         <v>244431.8947722718</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>65363</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="4">
         <v>0.74549085575464202</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="4">
         <v>1.2654071261858459</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J9" s="5">
         <v>0.87248261864980403</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K9" s="5">
         <v>0.85444780196115999</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L9" s="5">
         <v>0.58913122925242201</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M9" s="29">
         <v>0.68948767601745409</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N9" s="5">
         <v>0.68948767601745398</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="4">
         <f t="shared" si="0"/>
         <v>0.10035644676503197</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7">
+      <c r="E10" s="6"/>
+      <c r="F10" s="7">
         <v>256139.01542854009</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="7">
         <v>18213</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H10" s="8">
         <v>15.748229499640029</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="8">
         <v>17.31316013271438</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J10" s="9">
         <v>14.79479169604773</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K10" s="9">
         <v>1.064444151913744</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L10" s="9">
         <v>0.90961034143516595</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M10" s="27">
         <v>0.85454022157930476</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N10" s="9">
         <v>0.85454022157930498</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O10" s="8">
         <f t="shared" si="0"/>
         <v>-5.5070119855860966E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3">
         <v>256139.01542854009</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>18213</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="4">
         <v>14.19021990027891</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <v>14.18573100519226</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J11" s="5">
         <v>14.13412204258718</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K11" s="5">
         <v>1.003968966556444</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L11" s="5">
         <v>1.0003164373471489</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M11" s="25">
         <v>0.99636191024726295</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N11" s="5">
         <v>1.0003164373471489</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7">
+      <c r="E12" s="6"/>
+      <c r="F12" s="7">
         <v>256139.01542854009</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="7">
         <v>18213</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H12" s="8">
         <v>36.170527577691161</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I12" s="8">
         <v>36.183183667679863</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J12" s="9">
         <v>37.291864969974043</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K12" s="9">
         <v>0.9699307773106618</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L12" s="9">
         <v>0.99965022176862761</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M12" s="27">
         <v>1.0306407891709231</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N12" s="9">
         <v>0.99965022176862761</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3">
+      <c r="E13" s="2"/>
+      <c r="F13" s="3">
         <v>256139.01542854009</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>18213</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="4">
         <v>1.173813118670338</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="4">
         <v>0.94579786366649343</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J13" s="5">
         <v>1.1619292736734721</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K13" s="5">
         <v>1.0102276836173469</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L13" s="5">
         <v>1.241082438186017</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M13" s="25">
         <v>1.228517549372675</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N13" s="5">
         <v>1.241082438186017</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7">
+      <c r="E14" s="6"/>
+      <c r="F14" s="7">
         <v>256139.01542854009</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <v>18213</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <v>1.5622384341302351E-2</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="8">
         <v>2.5187293933090771E-2</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J14" s="9">
         <v>1.1128579635936589E-2</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K14" s="9">
         <v>1.403807570451695</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L14" s="9">
         <v>0.62024862149950322</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M14" s="27">
         <v>0.44183307923031739</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N14" s="9">
         <v>0.44183307923031701</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O14" s="8">
         <f t="shared" si="0"/>
         <v>-0.17841554226918621</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3">
+      <c r="E15" s="2"/>
+      <c r="F15" s="3">
         <v>271579.11586500128</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <v>22578</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="4">
         <v>13.485642355468579</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="4">
         <v>12.22952820314854</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J15" s="5">
         <v>12.504446640683041</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K15" s="5">
         <v>1.0784677437539081</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L15" s="5">
         <v>1.1027115790122339</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M15" s="25">
         <v>1.0224798890822071</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N15" s="5">
         <v>1.02247988908221</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O15" s="4">
         <f t="shared" si="0"/>
         <v>-8.0231689930023942E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7">
+      <c r="E16" s="6"/>
+      <c r="F16" s="7">
         <v>271579.11586500128</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="7">
         <v>22578</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="8">
         <v>1.0810313249372641</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16" s="8">
         <v>0.97698862677859222</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J16" s="9">
         <v>1.073943031130171</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K16" s="9">
         <v>1.0066002512252761</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L16" s="9">
         <v>1.1064932541760799</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M16" s="27">
         <v>1.0992380071723711</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N16" s="9">
         <v>1.1064932541760799</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3">
+      <c r="E17" s="2"/>
+      <c r="F17" s="3">
         <v>271579.11586500128</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>22578</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H17" s="4">
         <v>2.34077251756037</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="4">
         <v>2.4213781076208858</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <v>2.3478405358098589</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K17" s="5">
         <v>0.99698956630925895</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L17" s="5">
         <v>0.96671086196458822</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M17" s="25">
         <v>0.96962986838793197</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N17" s="5">
         <v>0.96671086196458822</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7">
+      <c r="E18" s="6"/>
+      <c r="F18" s="7">
         <v>271579.11586500128</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="7">
         <v>22578</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>3.1201013979583681</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="8">
         <v>3.128250812022602</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J18" s="9">
         <v>2.862986167014077</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K18" s="9">
         <v>1.0898066619764519</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L18" s="9">
         <v>0.99739489748299182</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M18" s="27">
         <v>0.91520352396647675</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N18" s="9">
         <v>0.91520352396647697</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O18" s="8">
         <f t="shared" si="0"/>
         <v>-8.2191373516514843E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3">
+      <c r="E19" s="2"/>
+      <c r="F19" s="3">
         <v>271579.11586500128</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <v>22578</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="4">
         <v>50.829688803761812</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="4">
         <v>55.070615635091933</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="5">
         <v>51.183012327385804</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K19" s="5">
         <v>0.99309685953292481</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L19" s="5">
         <v>0.92299111273003953</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M19" s="25">
         <v>0.92940693938367958</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N19" s="5">
         <v>0.92299111273003953</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7">
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
         <v>271579.11586500128</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G20" s="7">
         <v>22578</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H20" s="8">
         <v>3.9067573518493002</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I20" s="8">
         <v>4.2323481216485339</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J20" s="9">
         <v>3.8282315081008109</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="9">
         <v>1.020512302764951</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L20" s="9">
         <v>0.92307089104182338</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M20" s="27">
         <v>0.90451716117569358</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N20" s="9">
         <v>0.92307089104182338</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3">
+      <c r="E21" s="2"/>
+      <c r="F21" s="3">
         <v>271579.11586500128</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>22578</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <v>3.4255875933268429</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I21" s="4">
         <v>2.5344204821052672</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="5">
         <v>4.3282234342629966</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="5">
         <v>0.79145350173220608</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L21" s="5">
         <v>1.3516255954818159</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M21" s="25">
         <v>1.7077763791853791</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N21" s="5">
         <v>1.7077763791853799</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O21" s="4">
         <f t="shared" si="0"/>
         <v>0.35615078370356401</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7">
+      <c r="E22" s="6"/>
+      <c r="F22" s="7">
         <v>271579.11586500128</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G22" s="7">
         <v>22578</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="8">
         <v>1.1931172066117059</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I22" s="8">
         <v>0.9597310669189163</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J22" s="9">
         <v>1.2982458171318769</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K22" s="9">
         <v>0.91902256942955229</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L22" s="9">
         <v>1.243178685922967</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M22" s="27">
         <v>1.352718341503433</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N22" s="9">
         <v>1.3527183415034301</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O22" s="8">
         <f t="shared" si="0"/>
         <v>0.10953965558046308</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3">
+      <c r="E23" s="2"/>
+      <c r="F23" s="3">
         <v>271579.11586500128</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <v>22578</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H23" s="4">
         <v>1.3430785791942569E-2</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I23" s="4">
         <v>8.2754076373936815E-3</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="5">
         <v>7.981046971655862E-3</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K23" s="5">
         <v>1.682835076605999</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L23" s="5">
         <v>1.6229757349056171</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M23" s="25">
         <v>0.96442946636154736</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N23" s="5">
         <v>1</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O23" s="4">
         <f t="shared" si="0"/>
         <v>-0.62297573490561708</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7">
+      <c r="E24" s="6"/>
+      <c r="F24" s="7">
         <v>293565.54720744683</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G24" s="7">
         <v>4512</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H24" s="8">
         <v>10.534417286636989</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I24" s="8">
         <v>10.89383877417534</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J24" s="9">
         <v>11.30722180157488</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K24" s="9">
         <v>0.9316538997377537</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L24" s="9">
         <v>0.96700690225098695</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M24" s="27">
         <v>1.037946497645944</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N24" s="9">
         <v>1.037946497645944</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O24" s="8">
         <f t="shared" si="0"/>
         <v>7.0939595394957089E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3">
+      <c r="E25" s="2"/>
+      <c r="F25" s="3">
         <v>293565.54720744683</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>4512</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H25" s="4">
         <v>0.98270880317681975</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I25" s="4">
         <v>1.1985880732024641</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J25" s="5">
         <v>0.79279359394175941</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K25" s="5">
         <v>1.239551896844681</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L25" s="5">
         <v>0.81988868832238204</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M25" s="25">
         <v>0.66143958184359597</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N25" s="5">
         <v>0.66143958184359597</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O25" s="4">
         <f t="shared" si="0"/>
         <v>-0.15844910647878607</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7">
+      <c r="E26" s="6"/>
+      <c r="F26" s="7">
         <v>293565.54720744683</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G26" s="7">
         <v>4512</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H26" s="8">
         <v>0.5207469263464265</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I26" s="8">
         <v>0.62391988795006015</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J26" s="9">
         <v>0.56536063034549788</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K26" s="9">
         <v>0.92108806024960121</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L26" s="9">
         <v>0.8346374853627172</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M26" s="27">
         <v>0.90614298608598054</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N26" s="9">
         <v>0.90614298608598054</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O26" s="8">
         <f t="shared" si="0"/>
         <v>7.1505500723263338E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3">
+      <c r="E27" s="2"/>
+      <c r="F27" s="3">
         <v>293565.54720744683</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="3">
         <v>4512</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H27" s="4">
         <v>81.159266457864121</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I27" s="4">
         <v>82.108503793543221</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J27" s="5">
         <v>78.459774822525986</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K27" s="5">
         <v>1.0344060589192909</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L27" s="5">
         <v>0.98843923233498565</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M27" s="25">
         <v>0.95556210620775972</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N27" s="5">
         <v>0.98843923233498565</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7">
+      <c r="E28" s="6"/>
+      <c r="F28" s="7">
         <v>293565.54720744683</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G28" s="7">
         <v>4512</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <v>5.7035739487186037</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I28" s="8">
         <v>4.2217777927678988</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J28" s="9">
         <v>6.2779838893519866</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K28" s="9">
         <v>0.90850407539152278</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L28" s="9">
         <v>1.350988666075484</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M28" s="27">
         <v>1.487047447193091</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N28" s="9">
         <v>1.4870474471930899</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O28" s="8">
         <f t="shared" si="0"/>
         <v>0.13605878111760594</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3">
+      <c r="E29" s="2"/>
+      <c r="F29" s="3">
         <v>293565.54720744683</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <v>4512</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H29" s="4">
         <v>0.97365989310058398</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I29" s="4">
         <v>0.87689996533627723</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J29" s="5">
         <v>0.95616905602323066</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K29" s="5">
         <v>1.0182926198742499</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L29" s="5">
         <v>1.110343176632697</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M29" s="25">
         <v>1.090396959539798</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N29" s="5">
         <v>1.110343176632697</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7">
+      <c r="E30" s="6"/>
+      <c r="F30" s="7">
         <v>293565.54720744683</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G30" s="7">
         <v>4512</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="8">
         <v>0.12562668415649081</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I30" s="8">
         <v>7.6471713025587376E-2</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J30" s="9">
         <v>0.46811673235505219</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K30" s="9">
         <v>0.26836614774369311</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L30" s="9">
         <v>1.6427863217142289</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M30" s="27">
         <v>6.1214364610666001</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N30" s="9">
         <v>1.6427863217142289</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3">
+      <c r="E31" s="2"/>
+      <c r="F31" s="3">
         <v>250854.58190649669</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="3">
         <v>8235</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H31" s="4">
         <v>4.9072174033745322</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I31" s="4">
         <v>4.9079627927565843</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J31" s="5">
         <v>4.6064601743881237</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K31" s="5">
         <v>1.0652903135163561</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L31" s="5">
         <v>0.99984812652142507</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M31" s="25">
         <v>0.93856868295468066</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N31" s="5">
         <v>0.99984812652142507</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7">
+      <c r="E32" s="6"/>
+      <c r="F32" s="7">
         <v>250854.58190649669</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G32" s="7">
         <v>8235</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H32" s="8">
         <v>1.4804726519506199</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I32" s="8">
         <v>1.095900930072528</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J32" s="9">
         <v>1.2096648701305861</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K32" s="9">
         <v>1.223870088738545</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L32" s="9">
         <v>1.3509183278571011</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M32" s="27">
         <v>1.1038085988762949</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N32" s="9">
         <v>1.1038085988762949</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O32" s="8">
         <f t="shared" si="0"/>
         <v>-0.24710972898080619</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3">
+      <c r="E33" s="2"/>
+      <c r="F33" s="3">
         <v>250854.58190649669</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="3">
         <v>8235</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H33" s="4">
         <v>1.4058529331177001</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I33" s="4">
         <v>1.954971072968672</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J33" s="5">
         <v>1.36847830193659</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K33" s="5">
         <v>1.027311087890995</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L33" s="5">
         <v>0.71911700001927747</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M33" s="25">
         <v>0.69999925874019275</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N33" s="5">
         <v>0.71911700001927747</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O33" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7">
+      <c r="E34" s="6"/>
+      <c r="F34" s="7">
         <v>250854.58190649669</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G34" s="7">
         <v>8235</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H34" s="8">
         <v>3.5480799497955098</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I34" s="8">
         <v>3.548104783601389</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J34" s="9">
         <v>4.0401640863785619</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K34" s="9">
         <v>0.87820194277699848</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L34" s="9">
         <v>0.99999300082511844</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M34" s="27">
         <v>1.138682291755128</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N34" s="9">
         <v>1.13868229175513</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O34" s="8">
         <f t="shared" si="0"/>
         <v>0.13868929093001159</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3">
+      <c r="E35" s="2"/>
+      <c r="F35" s="3">
         <v>217528.40904716071</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G35" s="3">
         <v>1039</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H35" s="4">
         <v>7.3562135776500206</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I35" s="4">
         <v>7.3562135776500206</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J35" s="5">
         <v>8.9083364549111348</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K35" s="5">
         <v>0.82576737136983258</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L35" s="5">
         <v>1</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M35" s="25">
         <v>1.2109948087935949</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N35" s="5">
         <v>1.21099480879359</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O35" s="4">
         <f t="shared" si="0"/>
         <v>0.21099480879359001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O34" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:O35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G34">
+  <conditionalFormatting sqref="G3:G35">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2368,7 +2494,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K34">
+  <conditionalFormatting sqref="K3:K35">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0.6"/>
@@ -2380,7 +2506,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O34">
+  <conditionalFormatting sqref="O3:O35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="-0.5"/>
@@ -2393,17 +2519,17 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,23 +2546,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2520,14 +2646,14 @@
       <c r="L3" s="5">
         <v>0.86212574269417985</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="31">
         <v>1.2198392667436351</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="23">
         <v>1.105</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O31" si="0">N3-L3</f>
+        <f t="shared" ref="O3:O32" si="0">N3-L3</f>
         <v>0.24287425730582013</v>
       </c>
     </row>
@@ -2564,15 +2690,15 @@
       <c r="L4" s="5">
         <v>0.86212922230984146</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="31">
         <v>1.2198392667436351</v>
       </c>
-      <c r="N4" s="26">
-        <v>2.008</v>
+      <c r="N4" s="23">
+        <v>1.75</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>1.1458707776901584</v>
+        <v>0.88787077769015854</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2580,1249 +2706,1293 @@
         <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7">
-        <v>303330.53888000001</v>
+        <v>297039.39790400001</v>
       </c>
       <c r="G5" s="7">
         <v>250000</v>
       </c>
       <c r="H5" s="8">
-        <v>0.55174590943214985</v>
+        <v>0.6806772829482618</v>
       </c>
       <c r="I5" s="8">
-        <v>0.4324839408400824</v>
+        <v>0.56984031861662898</v>
       </c>
       <c r="J5" s="9">
-        <v>0.53044467222065561</v>
+        <v>0.56030309294018066</v>
       </c>
       <c r="K5" s="9">
-        <v>1.0401573214456441</v>
+        <v>1.214837632568508</v>
       </c>
       <c r="L5" s="9">
-        <v>1.2757604556608639</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1.226507211320468</v>
-      </c>
-      <c r="N5" s="9">
-        <v>1.226507211320468</v>
+        <v>1.194505303873032</v>
+      </c>
+      <c r="M5" s="33">
+        <v>1.361</v>
+      </c>
+      <c r="N5" s="23">
+        <v>1.361</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" si="0"/>
-        <v>-4.9253244340395907E-2</v>
+        <v>0.16649469612696799</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
+        <v>297039.39790400001</v>
+      </c>
+      <c r="G6" s="7">
+        <v>250000</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.6806772829482618</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.56984031861662898</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.56030309294018066</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1.214837632568508</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1.194505303873032</v>
+      </c>
+      <c r="M6" s="33">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.23050530387303203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3">
+      <c r="E7" s="2"/>
+      <c r="F7" s="3">
         <v>251206.08660217229</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="3">
         <v>62331</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="4">
         <v>36.101347336034152</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="4">
         <v>45.818706567799133</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J7" s="5">
         <v>35.281392226255157</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K7" s="5">
         <v>1.0232404408681131</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L7" s="5">
         <v>0.78791720762815609</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M7" s="31">
         <v>0.77002156693463986</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N7" s="5">
         <v>0.78791720762815609</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7">
+      <c r="E8" s="6"/>
+      <c r="F8" s="7">
         <v>251206.08660217229</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="7">
         <v>62331</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H8" s="8">
         <v>18.9028055983771</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I8" s="8">
         <v>13.00762064742654</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J8" s="9">
         <v>18.516017921357651</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K8" s="9">
         <v>1.020889355295628</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L8" s="9">
         <v>1.4532100920483779</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M8" s="32">
         <v>1.4234746248554611</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N8" s="9">
         <v>1.4532100920483779</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="3">
         <v>251206.08660217229</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>62331</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="4">
         <v>0.81199769808455635</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="4">
         <v>1.3775964561675049</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J9" s="5">
         <v>0.91098081240184725</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K9" s="5">
         <v>0.89134445756731484</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L9" s="5">
         <v>0.58943073964021842</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M9" s="31">
         <v>0.66128277865653784</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N9" s="5">
         <v>0.58943073964021842</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7">
+      <c r="E10" s="6"/>
+      <c r="F10" s="7">
         <v>259328.93180812741</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="7">
         <v>15823</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H10" s="8">
         <v>15.963072833830539</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="8">
         <v>16.292501946609921</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J10" s="9">
         <v>14.461158170472469</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K10" s="9">
         <v>1.1038585323286729</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L10" s="9">
         <v>0.97978032386560943</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M10" s="32">
         <v>0.88759591484851674</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N10" s="9">
         <v>0.88759591484851696</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O10" s="8">
         <f t="shared" si="0"/>
         <v>-9.2184409017092461E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3">
         <v>259328.93180812741</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>15823</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="4">
         <v>13.35060112076547</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <v>13.34901998679844</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J11" s="5">
         <v>13.350320119936089</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K11" s="5">
         <v>1.0000210482465479</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L11" s="5">
         <v>1.0001184456962831</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M11" s="5">
         <v>1.0000973953997321</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N11" s="5">
         <v>1.0000973953997321</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O11" s="4">
         <f t="shared" si="0"/>
         <v>-2.1050296550972902E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7">
+      <c r="E12" s="6"/>
+      <c r="F12" s="7">
         <v>259328.93180812741</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="7">
         <v>15823</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H12" s="8">
         <v>37.493400575155427</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I12" s="8">
         <v>37.498513956605663</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J12" s="9">
         <v>38.029023681156339</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K12" s="9">
         <v>0.9859154126466223</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L12" s="9">
         <v>0.99986363775758824</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M12" s="9">
         <v>1.0141474866221261</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N12" s="9">
         <v>0.99986363775758824</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3">
+      <c r="E13" s="2"/>
+      <c r="F13" s="3">
         <v>259328.93180812741</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>15823</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="4">
         <v>1.1030876640790539</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="4">
         <v>0.99359904357488216</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J13" s="5">
         <v>1.1594139468183109</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K13" s="5">
         <v>0.95141831535334787</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L13" s="5">
         <v>1.1101939672870871</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M13" s="5">
         <v>1.1668831147892831</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N13" s="5">
         <v>1.1101939672870871</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7">
+      <c r="E14" s="6"/>
+      <c r="F14" s="7">
         <v>259328.93180812741</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <v>15823</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <v>1.851104464645004E-2</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="8">
         <v>2.9833626358611219E-2</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J14" s="9">
         <v>1.171050178934561E-2</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K14" s="9">
         <v>1.5807217298998799</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L14" s="9">
         <v>0.62047584909526032</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M14" s="9">
         <v>0.39252693080556322</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N14" s="9">
         <v>0.392526930805563</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O14" s="8">
         <f t="shared" si="0"/>
         <v>-0.22794891828969732</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3">
+      <c r="E15" s="2"/>
+      <c r="F15" s="3">
         <v>274580.05843677669</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <v>19012</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="4">
         <v>13.168180452523879</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="4">
         <v>13.43970394545722</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J15" s="5">
         <v>12.01493163793187</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K15" s="5">
         <v>1.0959846338993</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L15" s="5">
         <v>0.9797969141258418</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M15" s="5">
         <v>0.89398782046780623</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N15" s="5">
         <v>0.893987820467806</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O15" s="4">
         <f t="shared" si="0"/>
         <v>-8.5809093658035795E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7">
+      <c r="E16" s="6"/>
+      <c r="F16" s="7">
         <v>274580.05843677669</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="7">
         <v>19012</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="8">
         <v>1.018817521093619</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16" s="8">
         <v>0.98784211412454292</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J16" s="9">
         <v>0.99865163506419385</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K16" s="9">
         <v>1.0201931137159039</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L16" s="9">
         <v>1.031356637387876</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M16" s="9">
         <v>1.0109425593271359</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N16" s="9">
         <v>1.031356637387876</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3">
+      <c r="E17" s="2"/>
+      <c r="F17" s="3">
         <v>274580.05843677669</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>19012</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H17" s="4">
         <v>2.2544385024894629</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="4">
         <v>2.4097713021482359</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <v>2.213942780966426</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K17" s="5">
         <v>1.0182912231838981</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L17" s="5">
         <v>0.93554043924404817</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M17" s="5">
         <v>0.91873564059492485</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N17" s="5">
         <v>0.93554043924404817</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7">
+      <c r="E18" s="6"/>
+      <c r="F18" s="7">
         <v>274580.05843677669</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="7">
         <v>19012</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>2.9854258986611928</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="8">
         <v>3.2775385615314292</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J18" s="9">
         <v>2.583756657520702</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K18" s="9">
         <v>1.155459392807495</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L18" s="9">
         <v>0.91087437801685334</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M18" s="9">
         <v>0.78832227569992097</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N18" s="9">
         <v>0.78832227569992097</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O18" s="8">
         <f t="shared" si="0"/>
         <v>-0.12255210231693237</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3">
+      <c r="E19" s="2"/>
+      <c r="F19" s="3">
         <v>274580.05843677669</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <v>19012</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="4">
         <v>54.310717401043433</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="4">
         <v>53.248949162414213</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="5">
         <v>56.240828387218187</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K19" s="5">
         <v>0.96568132010990404</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L19" s="5">
         <v>1.0199397031365021</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M19" s="5">
         <v>1.0561866341376711</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N19" s="5">
         <v>1.05618663413767</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O19" s="4">
         <f t="shared" si="0"/>
         <v>3.6246931001167937E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7">
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
         <v>274580.05843677669</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G20" s="7">
         <v>19012</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H20" s="8">
         <v>4.1643290768954602</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I20" s="8">
         <v>4.0828652669421546</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J20" s="9">
         <v>4.2494075336902384</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="9">
         <v>0.97997874853841205</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L20" s="9">
         <v>1.0199526079424901</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M20" s="9">
         <v>1.0407905370026611</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N20" s="9">
         <v>1.0407905370026611</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O20" s="8">
         <f t="shared" si="0"/>
         <v>2.0837929060171012E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3">
+      <c r="E21" s="2"/>
+      <c r="F21" s="3">
         <v>274580.05843677669</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>19012</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <v>1.305272416989018</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I21" s="4">
         <v>1.1112828546208491</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="5">
         <v>1.298527874091788</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="5">
         <v>1.0051939916206629</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L21" s="5">
         <v>1.1745636239788431</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M21" s="5">
         <v>1.1684944734748239</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N21" s="5">
         <v>1.1745636239788431</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O21" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7">
+      <c r="E22" s="6"/>
+      <c r="F22" s="7">
         <v>274580.05843677669</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G22" s="7">
         <v>19012</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="8">
         <v>1.3350751613368751E-2</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I22" s="8">
         <v>8.2204686280904337E-3</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J22" s="9">
         <v>3.4145987056507662E-2</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K22" s="9">
         <v>0.39099035536078658</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L22" s="9">
         <v>1.6240864380587079</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M22" s="9">
         <v>4.1537762141474852</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N22" s="9">
         <v>1.6240864380587079</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3">
+      <c r="E23" s="2"/>
+      <c r="F23" s="3">
         <v>291094.31946072693</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <v>5118</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H23" s="4">
         <v>7.4668845583718078</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I23" s="4">
         <v>9.1878695886290398</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="5">
         <v>7.2719719570096117</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K23" s="5">
         <v>1.0268032663649529</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L23" s="5">
         <v>0.81268943647315883</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M23" s="5">
         <v>0.7914753128417763</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N23" s="5">
         <v>0.81268943647315883</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7">
+      <c r="E24" s="6"/>
+      <c r="F24" s="7">
         <v>291094.31946072693</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G24" s="7">
         <v>5118</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H24" s="8">
         <v>0.67826342944598361</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I24" s="8">
         <v>1.1684439405358511</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J24" s="9">
         <v>0.641514031954738</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K24" s="9">
         <v>1.0572854149102049</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L24" s="9">
         <v>0.58048435694307299</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M24" s="9">
         <v>0.54903278599787875</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N24" s="9">
         <v>0.58048435694307299</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3">
+      <c r="E25" s="2"/>
+      <c r="F25" s="3">
         <v>291094.31946072693</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>5118</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H25" s="4">
         <v>0.31613202885648589</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I25" s="4">
         <v>0.52312498470300395</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J25" s="5">
         <v>0.27342555087042641</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K25" s="5">
         <v>1.1561905163950741</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L25" s="5">
         <v>0.60431452922472229</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M25" s="5">
         <v>0.5226772929334651</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N25" s="5">
         <v>0.52267729293346499</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O25" s="4">
         <f t="shared" si="0"/>
         <v>-8.1637236291257298E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7">
+      <c r="E26" s="6"/>
+      <c r="F26" s="7">
         <v>291094.31946072693</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G26" s="7">
         <v>5118</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H26" s="8">
         <v>82.705489671585553</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I26" s="8">
         <v>82.693942406003103</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J26" s="9">
         <v>87.854935383013952</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K26" s="9">
         <v>0.94138695010156481</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L26" s="9">
         <v>1.0001396385907659</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M26" s="9">
         <v>1.0624107743185329</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N26" s="9">
         <v>1</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O26" s="8">
         <f t="shared" si="0"/>
         <v>-1.3963859076593366E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3">
+      <c r="E27" s="2"/>
+      <c r="F27" s="3">
         <v>291094.31946072693</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="3">
         <v>5118</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H27" s="4">
         <v>1.3671911064464779</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I27" s="4">
         <v>0.93230195571934815</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J27" s="5">
         <v>1.230642451941911</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K27" s="5">
         <v>1.1109572112428741</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L27" s="5">
         <v>1.466468130908914</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M27" s="5">
         <v>1.320004151436504</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N27" s="5">
         <v>1.3200041514365</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O27" s="4">
         <f t="shared" si="0"/>
         <v>-0.14646397947241407</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7">
+      <c r="E28" s="6"/>
+      <c r="F28" s="7">
         <v>291094.31946072693</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G28" s="7">
         <v>5118</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <v>0.26847605780621231</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I28" s="8">
         <v>0.16400237028543591</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J28" s="9">
         <v>0.76716320090286561</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K28" s="9">
         <v>0.34995950990642649</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L28" s="9">
         <v>1.6370254731010681</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M28" s="9">
         <v>4.6777567883175477</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N28" s="9">
         <v>1.6370254731010681</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3">
+      <c r="E29" s="2"/>
+      <c r="F29" s="3">
         <v>258794.42626480089</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <v>3716</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H29" s="4">
         <v>5.793440409932324</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I29" s="4">
         <v>5.7933789973742229</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J29" s="5">
         <v>8.6495205388264154</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K29" s="5">
         <v>0.66979902341712805</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L29" s="5">
         <v>1.00001060047308</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M29" s="5">
         <v>1.493000983147607</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N29" s="5">
         <v>1.00001060047308</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7">
+      <c r="E30" s="6"/>
+      <c r="F30" s="7">
         <v>258794.42626480089</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G30" s="7">
         <v>3716</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="8">
         <v>0.90218188753677275</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I30" s="8">
         <v>1.255062020166456</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J30" s="9">
         <v>1.0247354280006491</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K30" s="9">
         <v>0.88040470045718089</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L30" s="9">
         <v>0.71883450621597023</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M30" s="9">
         <v>0.81648190410920141</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N30" s="9">
         <v>0.71883450621597023</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3">
+      <c r="E31" s="2"/>
+      <c r="F31" s="3">
         <v>258794.42626480089</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="3">
         <v>3716</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H31" s="4">
         <v>3.664022607506833</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I31" s="4">
         <v>3.6639118684926242</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J31" s="5">
         <v>1.969674502193637</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K31" s="5">
         <v>1.8602173117569389</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L31" s="5">
         <v>1.000030224257074</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M31" s="5">
         <v>0.53758784951450911</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N31" s="5">
         <v>1.000030224257074</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7">
+      <c r="E32" s="6"/>
+      <c r="F32" s="7">
         <v>183447.81627296589</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G32" s="7">
         <v>762</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H32" s="8">
         <v>7.7660267821655866</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I32" s="8">
         <v>7.7660267821655866</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J32" s="9">
         <v>5.6688456390188291</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K32" s="9">
         <v>1.3699485356792569</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L32" s="9">
         <v>1</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M32" s="9">
         <v>0.72995442818162026</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N32" s="9">
         <v>0.72995442818162026</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O32" s="8">
         <f t="shared" si="0"/>
         <v>-0.27004557181837974</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O31" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:O32" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:G31 G3">
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3834,7 +4004,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K31 K3">
+  <conditionalFormatting sqref="G5:G6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G32 G3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0.6"/>
@@ -3846,7 +4040,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O31 O3">
+  <conditionalFormatting sqref="K5:K6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="1.4"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:K32 K3">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="1.4"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="-0.5"/>
@@ -3858,8 +4076,1787 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="O5:O6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="-0.5"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:O32 O3">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="-0.5"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O43"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="16">
+        <v>563310.05303606112</v>
+      </c>
+      <c r="G3" s="16">
+        <v>23682</v>
+      </c>
+      <c r="L3" s="19">
+        <v>1.46</v>
+      </c>
+      <c r="M3" s="18">
+        <v>1.8757824494845647</v>
+      </c>
+      <c r="N3" s="23">
+        <v>1.75</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" ref="O3:O20" si="0">N3-L3</f>
+        <v>0.29000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="16">
+        <v>618774.81793103449</v>
+      </c>
+      <c r="G4" s="16">
+        <v>3625</v>
+      </c>
+      <c r="L4" s="21">
+        <v>1.35</v>
+      </c>
+      <c r="M4" s="18">
+        <v>1.9090690073763774</v>
+      </c>
+      <c r="N4" s="18">
+        <v>1.75</v>
+      </c>
+      <c r="O4" s="22">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="16">
+        <v>580871.35372059525</v>
+      </c>
+      <c r="G5" s="16">
+        <v>10415</v>
+      </c>
+      <c r="L5" s="19">
+        <v>1.17</v>
+      </c>
+      <c r="M5" s="18">
+        <v>1.5429749863728117</v>
+      </c>
+      <c r="N5" s="18">
+        <v>1.5429749863728117</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.37297498637281179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="16">
+        <v>590682.8455764075</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1865</v>
+      </c>
+      <c r="L6" s="21">
+        <v>1.77</v>
+      </c>
+      <c r="M6" s="18">
+        <v>2.9798324151035613</v>
+      </c>
+      <c r="N6" s="23">
+        <v>1.75</v>
+      </c>
+      <c r="O6" s="22">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="16">
+        <v>294811.50603251968</v>
+      </c>
+      <c r="G7" s="16">
+        <v>50062</v>
+      </c>
+      <c r="L7" s="19">
+        <v>1.05</v>
+      </c>
+      <c r="M7" s="18">
+        <v>1.1723423661324466</v>
+      </c>
+      <c r="N7" s="18">
+        <v>1.1723423661324466</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.12234236613244653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="16">
+        <v>441292.65545564587</v>
+      </c>
+      <c r="G8" s="16">
+        <v>11566</v>
+      </c>
+      <c r="L8" s="21">
+        <v>1.34</v>
+      </c>
+      <c r="M8" s="18">
+        <v>2.3062879776210434</v>
+      </c>
+      <c r="N8" s="23">
+        <v>1.75</v>
+      </c>
+      <c r="O8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.40999999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="16">
+        <v>339880.16376328142</v>
+      </c>
+      <c r="G9" s="16">
+        <v>16188</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="M9" s="18">
+        <v>1.0203679822336391</v>
+      </c>
+      <c r="N9" s="18">
+        <v>1.0203679822336391</v>
+      </c>
+      <c r="O9" s="20">
+        <f t="shared" si="0"/>
+        <v>5.0367982233639141E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="16">
+        <v>392581.43689462868</v>
+      </c>
+      <c r="G10" s="16">
+        <v>20442</v>
+      </c>
+      <c r="L10" s="21">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M10" s="18">
+        <v>1.5286165142488224</v>
+      </c>
+      <c r="N10" s="18">
+        <v>1.5286165142488224</v>
+      </c>
+      <c r="O10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.37861651424882248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="16">
+        <v>451565.44890580402</v>
+      </c>
+      <c r="G11" s="16">
+        <v>5255</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="M11" s="18">
+        <v>1.235494837675347</v>
+      </c>
+      <c r="N11" s="18">
+        <v>1.235494837675347</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" si="0"/>
+        <v>0.33549483767534694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12">
+        <v>563310.05303606112</v>
+      </c>
+      <c r="G12">
+        <v>23682</v>
+      </c>
+      <c r="L12" s="21">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M12" s="18">
+        <v>1.1669628555435489</v>
+      </c>
+      <c r="N12" s="18">
+        <v>1.1669628555435489</v>
+      </c>
+      <c r="O12" s="22">
+        <f t="shared" si="0"/>
+        <v>1.6962855543549038E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>618774.81793103449</v>
+      </c>
+      <c r="G13">
+        <v>3625</v>
+      </c>
+      <c r="L13" s="19">
+        <v>1.32</v>
+      </c>
+      <c r="M13" s="18">
+        <v>1.2422164313353015</v>
+      </c>
+      <c r="N13" s="18">
+        <v>1.2422164313353015</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="0"/>
+        <v>-7.7783568664698599E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14">
+        <v>580871.35372059525</v>
+      </c>
+      <c r="G14">
+        <v>10415</v>
+      </c>
+      <c r="L14" s="21">
+        <v>1.24</v>
+      </c>
+      <c r="M14" s="18">
+        <v>1.0878734295345482</v>
+      </c>
+      <c r="N14" s="18">
+        <v>1.0878734295345482</v>
+      </c>
+      <c r="O14" s="22">
+        <f t="shared" si="0"/>
+        <v>-0.15212657046545175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>590682.8455764075</v>
+      </c>
+      <c r="G15">
+        <v>1865</v>
+      </c>
+      <c r="L15" s="19">
+        <v>1.17</v>
+      </c>
+      <c r="M15" s="18">
+        <v>1.0843300140348211</v>
+      </c>
+      <c r="N15" s="18">
+        <v>1.0843300140348211</v>
+      </c>
+      <c r="O15" s="20">
+        <f t="shared" si="0"/>
+        <v>-8.566998596517883E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16">
+        <v>294811.50603251968</v>
+      </c>
+      <c r="G16">
+        <v>50062</v>
+      </c>
+      <c r="L16" s="21">
+        <v>1.24</v>
+      </c>
+      <c r="M16" s="18">
+        <v>1.2095924767566302</v>
+      </c>
+      <c r="N16" s="18">
+        <v>1.2095924767566302</v>
+      </c>
+      <c r="O16" s="22">
+        <f t="shared" si="0"/>
+        <v>-3.0407523243369816E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17">
+        <v>441292.65545564587</v>
+      </c>
+      <c r="G17">
+        <v>11566</v>
+      </c>
+      <c r="L17" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="M17" s="18">
+        <v>0.93914652849348201</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0.93914652849348201</v>
+      </c>
+      <c r="O17" s="20">
+        <f t="shared" si="0"/>
+        <v>9.1465284934819646E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18">
+        <v>339880.16376328142</v>
+      </c>
+      <c r="G18">
+        <v>16188</v>
+      </c>
+      <c r="L18" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="M18" s="18">
+        <v>1.350929273771875</v>
+      </c>
+      <c r="N18" s="18">
+        <v>1.350929273771875</v>
+      </c>
+      <c r="O18" s="22">
+        <f t="shared" si="0"/>
+        <v>-4.9070726228124917E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19">
+        <v>392581.43689462868</v>
+      </c>
+      <c r="G19">
+        <v>20442</v>
+      </c>
+      <c r="L19" s="19">
+        <v>1.52</v>
+      </c>
+      <c r="M19" s="18">
+        <v>1.4233355426573264</v>
+      </c>
+      <c r="N19" s="18">
+        <v>1.4233355426573264</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" si="0"/>
+        <v>-9.6664457342673593E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20">
+        <v>451565.44890580402</v>
+      </c>
+      <c r="G20">
+        <v>5255</v>
+      </c>
+      <c r="L20">
+        <v>1.19</v>
+      </c>
+      <c r="M20" s="18">
+        <v>1.1061996645820804</v>
+      </c>
+      <c r="N20" s="18">
+        <v>1.1061996645820804</v>
+      </c>
+      <c r="O20" s="20">
+        <f t="shared" si="0"/>
+        <v>-8.3800335417919536E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3">
+        <v>426533.71064467769</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3335</v>
+      </c>
+      <c r="H21" s="4">
+        <v>32.759875221762179</v>
+      </c>
+      <c r="I21" s="4">
+        <v>38.540890217639891</v>
+      </c>
+      <c r="J21" s="5">
+        <v>33.542992859551518</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.97665331650433385</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.85000307561054256</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.87032221285327571</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.85000307561054256</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" ref="O21:O43" si="1">N21-L21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7">
+        <v>426533.71064467769</v>
+      </c>
+      <c r="G22" s="7">
+        <v>3335</v>
+      </c>
+      <c r="H22" s="8">
+        <v>32.759875221762179</v>
+      </c>
+      <c r="I22" s="8">
+        <v>38.540890217639891</v>
+      </c>
+      <c r="J22" s="9">
+        <v>33.542992859551518</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.97665331650433385</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.85000307561054256</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.87032221285327571</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0.85000307561054256</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3">
+        <v>426533.71064467769</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3335</v>
+      </c>
+      <c r="H23" s="4">
+        <v>28.396832840545489</v>
+      </c>
+      <c r="I23" s="4">
+        <v>24.90949382153962</v>
+      </c>
+      <c r="J23" s="5">
+        <v>24.84104610366801</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1.1431415859878959</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1.140000396796113</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.99725214336501611</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.14000039679611298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7">
+        <v>426533.71064467769</v>
+      </c>
+      <c r="G24" s="7">
+        <v>3335</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1.589702383966048</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1.5896974804253401</v>
+      </c>
+      <c r="J24" s="9">
+        <v>1.807284460918632</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0.87960828433063154</v>
+      </c>
+      <c r="L24" s="9">
+        <v>1.0000030845747501</v>
+      </c>
+      <c r="M24" s="9">
+        <v>1.136873199569439</v>
+      </c>
+      <c r="N24" s="9">
+        <v>1</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.0845747500674037E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3">
+        <v>460436.64433811803</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1254</v>
+      </c>
+      <c r="H25" s="4">
+        <v>13.73010728807772</v>
+      </c>
+      <c r="I25" s="4">
+        <v>13.73011271856457</v>
+      </c>
+      <c r="J25" s="5">
+        <v>12.77093567415279</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1.0751058214055691</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.99999960448344705</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.93014062855326196</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9551655295344545E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7">
+        <v>460436.64433811803</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1254</v>
+      </c>
+      <c r="H26" s="8">
+        <v>10.89793977669777</v>
+      </c>
+      <c r="I26" s="8">
+        <v>12.973728123463349</v>
+      </c>
+      <c r="J26" s="9">
+        <v>12.98246570633593</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0.83943528318963023</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.84000062842295409</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1.0006734828099859</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1.0006734828099859</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" si="1"/>
+        <v>0.16067285438703183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3">
+        <v>460436.64433811803</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1254</v>
+      </c>
+      <c r="H27" s="4">
+        <v>40.075107418794389</v>
+      </c>
+      <c r="I27" s="4">
+        <v>40.075121520102492</v>
+      </c>
+      <c r="J27" s="5">
+        <v>34.244313766265748</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1.170270418976028</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.99999964812812614</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.85450305494614942</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.85450305494614942</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.14549659318197672</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35">
+        <v>460436.64433811803</v>
+      </c>
+      <c r="G28" s="35">
+        <v>1254</v>
+      </c>
+      <c r="H28" s="36">
+        <v>1.8406724806776991</v>
+      </c>
+      <c r="I28" s="36">
+        <v>1.8406730830676989</v>
+      </c>
+      <c r="J28" s="37">
+        <v>2.3906251463887291</v>
+      </c>
+      <c r="K28" s="37">
+        <v>0.76995445457361367</v>
+      </c>
+      <c r="L28" s="37">
+        <v>0.99999967273384605</v>
+      </c>
+      <c r="M28" s="37">
+        <v>1.2987776962568871</v>
+      </c>
+      <c r="N28" s="37">
+        <v>1.2987776962568871</v>
+      </c>
+      <c r="O28" s="36">
+        <f t="shared" si="1"/>
+        <v>0.29877802352304106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3">
+        <v>460436.64433811803</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1254</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2.3268163103236601E-2</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2.326818713263613E-2</v>
+      </c>
+      <c r="J29" s="5">
+        <v>8.3582207458828819</v>
+      </c>
+      <c r="K29" s="5">
+        <v>2.7838655870267731E-3</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.99999896728527271</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0327147272892745E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1029</v>
+      </c>
+      <c r="H30" s="8">
+        <v>5.8588176272664283</v>
+      </c>
+      <c r="I30" s="8">
+        <v>5.8081112166073217</v>
+      </c>
+      <c r="J30" s="9">
+        <v>6.4580642575948239</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0.90720955902170397</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1.0087302754317311</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1.1119043724798301</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1.0087302754317311</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1029</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2.337828237001097</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1.465919596317969</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1.6004127350510069</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1.460765829838631</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1.5947861280203559</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1.0917465999300731</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.59478612802035591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1029</v>
+      </c>
+      <c r="H32" s="8">
+        <v>4.0474481450061637</v>
+      </c>
+      <c r="I32" s="8">
+        <v>3.0772149375937099</v>
+      </c>
+      <c r="J32" s="9">
+        <v>4.1080516303842627</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0.98524763298254103</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1.3152958851067931</v>
+      </c>
+      <c r="M32" s="9">
+        <v>1.3349901497607559</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1.3152958851067931</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1029</v>
+      </c>
+      <c r="H33" s="4">
+        <v>3.2413494657517039</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2.1038669232065081</v>
+      </c>
+      <c r="J33" s="5">
+        <v>3.1125011024108131</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1.041397049864847</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1.540662781470777</v>
+      </c>
+      <c r="M33" s="5">
+        <v>1.4794191914320529</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1.540662781470777</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1029</v>
+      </c>
+      <c r="H34" s="8">
+        <v>48.152480255391417</v>
+      </c>
+      <c r="I34" s="8">
+        <v>65.004304342998935</v>
+      </c>
+      <c r="J34" s="9">
+        <v>47.572361382326733</v>
+      </c>
+      <c r="K34" s="9">
+        <v>1.0121944519087971</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0.74075833503750932</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0.73183402027207978</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0.74075833503750932</v>
+      </c>
+      <c r="O34" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1029</v>
+      </c>
+      <c r="H35" s="4">
+        <v>3.5789322071884011</v>
+      </c>
+      <c r="I35" s="4">
+        <v>3.5320050236233742</v>
+      </c>
+      <c r="J35" s="5">
+        <v>3.0228420072683511</v>
+      </c>
+      <c r="K35" s="5">
+        <v>1.1839627074729491</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1.013286273165287</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0.85584306563848311</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1.013286273165287</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1029</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1.9575019014637749</v>
+      </c>
+      <c r="I36" s="8">
+        <v>1.953978003153251</v>
+      </c>
+      <c r="J36" s="9">
+        <v>2.6046342261121191</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0.75154579550530409</v>
+      </c>
+      <c r="L36" s="9">
+        <v>1.001803448301279</v>
+      </c>
+      <c r="M36" s="9">
+        <v>1.3329905566535889</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1.001803448301279</v>
+      </c>
+      <c r="O36" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3">
+        <v>568559.91933916428</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1029</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.22571451106405421</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0.63419329818588643</v>
+      </c>
+      <c r="J37" s="5">
+        <v>5.0754988337155657E-3</v>
+      </c>
+      <c r="K37" s="5">
+        <v>44.471394528686723</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.35590806731908381</v>
+      </c>
+      <c r="M37" s="5">
+        <v>8.0030786327040335E-3</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0.35590806731908381</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7">
+        <v>590924.57142857148</v>
+      </c>
+      <c r="G38" s="7">
+        <v>287</v>
+      </c>
+      <c r="H38" s="8">
+        <v>3.127292976195879</v>
+      </c>
+      <c r="I38" s="8">
+        <v>7.0336232768454421</v>
+      </c>
+      <c r="J38" s="9">
+        <v>1.6834939783769101</v>
+      </c>
+      <c r="K38" s="9">
+        <v>1.8576205298999431</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0.44462048265946652</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0.23934946642919319</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0.44462048265946652</v>
+      </c>
+      <c r="O38" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3">
+        <v>590924.57142857148</v>
+      </c>
+      <c r="G39" s="3">
+        <v>287</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.37338120175775719</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.37800115726567918</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.1748183646965934</v>
+      </c>
+      <c r="K39" s="5">
+        <v>2.13582367279193</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.98777793290015015</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0.46248103037875571</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0.98777793290015015</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7">
+        <v>590924.57142857148</v>
+      </c>
+      <c r="G40" s="7">
+        <v>287</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0.48636691937188847</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1.6995945169682549</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0.18834719648289891</v>
+      </c>
+      <c r="K40" s="9">
+        <v>2.5822891365205352</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0.28616644412307951</v>
+      </c>
+      <c r="M40" s="9">
+        <v>0.1108189009804959</v>
+      </c>
+      <c r="N40" s="9">
+        <v>0.28616644412307951</v>
+      </c>
+      <c r="O40" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="13">
+        <v>590924.57142857148</v>
+      </c>
+      <c r="G41" s="3">
+        <v>287</v>
+      </c>
+      <c r="H41" s="4">
+        <v>92.520382560995898</v>
+      </c>
+      <c r="I41" s="4">
+        <v>85.3168943982906</v>
+      </c>
+      <c r="J41" s="5">
+        <v>78.558525269179242</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1.1777255523060881</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1.084432142232894</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0.9207851015115387</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="1"/>
+        <v>-8.443214223289397E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="14">
+        <v>590924.57142857148</v>
+      </c>
+      <c r="G42" s="12">
+        <v>287</v>
+      </c>
+      <c r="H42" s="8">
+        <v>1.3141783279146559</v>
+      </c>
+      <c r="I42" s="8">
+        <v>1.312977207019876</v>
+      </c>
+      <c r="J42" s="9">
+        <v>1.095322499477523</v>
+      </c>
+      <c r="K42" s="9">
+        <v>1.1998094885675481</v>
+      </c>
+      <c r="L42" s="9">
+        <v>1.0009148071180201</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0.83422811425921606</v>
+      </c>
+      <c r="N42" s="9">
+        <v>1</v>
+      </c>
+      <c r="O42" s="8">
+        <f t="shared" si="1"/>
+        <v>-9.1480711802005565E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="15">
+        <v>590924.57142857148</v>
+      </c>
+      <c r="G43" s="13">
+        <v>287</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1.1365323775961631</v>
+      </c>
+      <c r="I43" s="4">
+        <v>3.2170659856731829</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.21293275093183989</v>
+      </c>
+      <c r="K43" s="5">
+        <v>5.3375179375763029</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.35328227106859889</v>
+      </c>
+      <c r="M43" s="5">
+        <v>6.6188493453385899E-2</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0.35328227106859889</v>
+      </c>
+      <c r="O43" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:O43" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G21:G43">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3870,7 +5867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="K21:K43">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0.6"/>
@@ -3882,7 +5879,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="O3:O43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="-0.5"/>
@@ -3898,13 +5895,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:O27"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3922,23 +5919,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5112,1896 +7109,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O45"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3">
-        <v>408789.07597484282</v>
-      </c>
-      <c r="G3" s="3">
-        <v>143100</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1.506144138948283</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1.2515688766459629</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1.978612767031358</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.76121218059663531</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1.2034049160638669</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1.5809060164022111</v>
-      </c>
-      <c r="N3" s="5">
-        <v>1.5809060164022111</v>
-      </c>
-      <c r="O3" s="4">
-        <f t="shared" ref="O3:O45" si="0">N3-L3</f>
-        <v>0.37750110033834416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7">
-        <v>408789.07597484282</v>
-      </c>
-      <c r="G4" s="7">
-        <v>143100</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1.334644238236097</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1.0687645812171129</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1.2850023989749491</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1.0386317094043931</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1.248772893199922</v>
-      </c>
-      <c r="M4" s="9">
-        <v>1.2023250223277271</v>
-      </c>
-      <c r="N4" s="9">
-        <v>1.248772893199922</v>
-      </c>
-      <c r="O4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3">
-        <v>426533.71064467769</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3335</v>
-      </c>
-      <c r="H5" s="4">
-        <v>32.759875221762179</v>
-      </c>
-      <c r="I5" s="4">
-        <v>38.540890217639891</v>
-      </c>
-      <c r="J5" s="5">
-        <v>33.542992859551518</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.97665331650433385</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.85000307561054256</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.87032221285327571</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0.85000307561054256</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
-        <v>426533.71064467769</v>
-      </c>
-      <c r="G6" s="7">
-        <v>3335</v>
-      </c>
-      <c r="H6" s="8">
-        <v>32.759875221762179</v>
-      </c>
-      <c r="I6" s="8">
-        <v>38.540890217639891</v>
-      </c>
-      <c r="J6" s="9">
-        <v>33.542992859551518</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0.97665331650433385</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0.85000307561054256</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0.87032221285327571</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0.85000307561054256</v>
-      </c>
-      <c r="O6" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3">
-        <v>426533.71064467769</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3335</v>
-      </c>
-      <c r="H7" s="4">
-        <v>28.396832840545489</v>
-      </c>
-      <c r="I7" s="4">
-        <v>24.90949382153962</v>
-      </c>
-      <c r="J7" s="5">
-        <v>24.84104610366801</v>
-      </c>
-      <c r="K7" s="5">
-        <v>1.1431415859878959</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1.140000396796113</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0.99725214336501611</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.14000039679611298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7">
-        <v>426533.71064467769</v>
-      </c>
-      <c r="G8" s="7">
-        <v>3335</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1.589702383966048</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1.5896974804253401</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1.807284460918632</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0.87960828433063154</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1.0000030845747501</v>
-      </c>
-      <c r="M8" s="9">
-        <v>1.136873199569439</v>
-      </c>
-      <c r="N8" s="9">
-        <v>1</v>
-      </c>
-      <c r="O8" s="8">
-        <f t="shared" si="0"/>
-        <v>-3.0845747500674037E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3">
-        <v>460436.64433811803</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1254</v>
-      </c>
-      <c r="H9" s="4">
-        <v>13.73010728807772</v>
-      </c>
-      <c r="I9" s="4">
-        <v>13.73011271856457</v>
-      </c>
-      <c r="J9" s="5">
-        <v>12.77093567415279</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1.0751058214055691</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0.99999960448344705</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0.93014062855326196</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="0"/>
-        <v>3.9551655295344545E-7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7">
-        <v>460436.64433811803</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1254</v>
-      </c>
-      <c r="H10" s="8">
-        <v>10.89793977669777</v>
-      </c>
-      <c r="I10" s="8">
-        <v>12.973728123463349</v>
-      </c>
-      <c r="J10" s="9">
-        <v>12.98246570633593</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0.83943528318963023</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0.84000062842295409</v>
-      </c>
-      <c r="M10" s="9">
-        <v>1.0006734828099859</v>
-      </c>
-      <c r="N10" s="9">
-        <v>1.0006734828099859</v>
-      </c>
-      <c r="O10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.16067285438703183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3">
-        <v>460436.64433811803</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1254</v>
-      </c>
-      <c r="H11" s="4">
-        <v>40.075107418794389</v>
-      </c>
-      <c r="I11" s="4">
-        <v>40.075121520102492</v>
-      </c>
-      <c r="J11" s="5">
-        <v>34.244313766265748</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1.170270418976028</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0.99999964812812614</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.85450305494614942</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0.85450305494614942</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.14549659318197672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7">
-        <v>460436.64433811803</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1254</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1.8406724806776991</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1.8406730830676989</v>
-      </c>
-      <c r="J12" s="9">
-        <v>2.3906251463887291</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0.76995445457361367</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0.99999967273384605</v>
-      </c>
-      <c r="M12" s="9">
-        <v>1.2987776962568871</v>
-      </c>
-      <c r="N12" s="9">
-        <v>1.2987776962568871</v>
-      </c>
-      <c r="O12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.29877802352304106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3">
-        <v>460436.64433811803</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1254</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2.3268163103236601E-2</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2.326818713263613E-2</v>
-      </c>
-      <c r="J13" s="5">
-        <v>8.3582207458828819</v>
-      </c>
-      <c r="K13" s="5">
-        <v>2.7838655870267731E-3</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0.99999896728527271</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0327147272892745E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1029</v>
-      </c>
-      <c r="H14" s="8">
-        <v>5.8588176272664283</v>
-      </c>
-      <c r="I14" s="8">
-        <v>5.8081112166073217</v>
-      </c>
-      <c r="J14" s="9">
-        <v>6.4580642575948239</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0.90720955902170397</v>
-      </c>
-      <c r="L14" s="9">
-        <v>1.0087302754317311</v>
-      </c>
-      <c r="M14" s="9">
-        <v>1.1119043724798301</v>
-      </c>
-      <c r="N14" s="9">
-        <v>1.0087302754317311</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1029</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2.337828237001097</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.465919596317969</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1.6004127350510069</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1.460765829838631</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1.5947861280203559</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1.0917465999300731</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.59478612802035591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1029</v>
-      </c>
-      <c r="H16" s="8">
-        <v>4.0474481450061637</v>
-      </c>
-      <c r="I16" s="8">
-        <v>3.0772149375937099</v>
-      </c>
-      <c r="J16" s="9">
-        <v>4.1080516303842627</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0.98524763298254103</v>
-      </c>
-      <c r="L16" s="9">
-        <v>1.3152958851067931</v>
-      </c>
-      <c r="M16" s="9">
-        <v>1.3349901497607559</v>
-      </c>
-      <c r="N16" s="9">
-        <v>1.3152958851067931</v>
-      </c>
-      <c r="O16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1029</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3.2413494657517039</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2.1038669232065081</v>
-      </c>
-      <c r="J17" s="5">
-        <v>3.1125011024108131</v>
-      </c>
-      <c r="K17" s="5">
-        <v>1.041397049864847</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1.540662781470777</v>
-      </c>
-      <c r="M17" s="5">
-        <v>1.4794191914320529</v>
-      </c>
-      <c r="N17" s="5">
-        <v>1.540662781470777</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1029</v>
-      </c>
-      <c r="H18" s="8">
-        <v>48.152480255391417</v>
-      </c>
-      <c r="I18" s="8">
-        <v>65.004304342998935</v>
-      </c>
-      <c r="J18" s="9">
-        <v>47.572361382326733</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1.0121944519087971</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0.74075833503750932</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0.73183402027207978</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0.74075833503750932</v>
-      </c>
-      <c r="O18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1029</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3.5789322071884011</v>
-      </c>
-      <c r="I19" s="4">
-        <v>3.5320050236233742</v>
-      </c>
-      <c r="J19" s="5">
-        <v>3.0228420072683511</v>
-      </c>
-      <c r="K19" s="5">
-        <v>1.1839627074729491</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1.013286273165287</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0.85584306563848311</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1.013286273165287</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1029</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1.9575019014637749</v>
-      </c>
-      <c r="I20" s="8">
-        <v>1.953978003153251</v>
-      </c>
-      <c r="J20" s="9">
-        <v>2.6046342261121191</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0.75154579550530409</v>
-      </c>
-      <c r="L20" s="9">
-        <v>1.001803448301279</v>
-      </c>
-      <c r="M20" s="9">
-        <v>1.3329905566535889</v>
-      </c>
-      <c r="N20" s="9">
-        <v>1.001803448301279</v>
-      </c>
-      <c r="O20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3">
-        <v>568559.91933916428</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1029</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.22571451106405421</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.63419329818588643</v>
-      </c>
-      <c r="J21" s="5">
-        <v>5.0754988337155657E-3</v>
-      </c>
-      <c r="K21" s="5">
-        <v>44.471394528686723</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0.35590806731908381</v>
-      </c>
-      <c r="M21" s="5">
-        <v>8.0030786327040335E-3</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0.35590806731908381</v>
-      </c>
-      <c r="O21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7">
-        <v>590924.57142857148</v>
-      </c>
-      <c r="G22" s="7">
-        <v>287</v>
-      </c>
-      <c r="H22" s="8">
-        <v>3.127292976195879</v>
-      </c>
-      <c r="I22" s="8">
-        <v>7.0336232768454421</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1.6834939783769101</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1.8576205298999431</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0.44462048265946652</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0.23934946642919319</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0.44462048265946652</v>
-      </c>
-      <c r="O22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3">
-        <v>590924.57142857148</v>
-      </c>
-      <c r="G23" s="3">
-        <v>287</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0.37338120175775719</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.37800115726567918</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0.1748183646965934</v>
-      </c>
-      <c r="K23" s="5">
-        <v>2.13582367279193</v>
-      </c>
-      <c r="L23" s="5">
-        <v>0.98777793290015015</v>
-      </c>
-      <c r="M23" s="5">
-        <v>0.46248103037875571</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0.98777793290015015</v>
-      </c>
-      <c r="O23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7">
-        <v>590924.57142857148</v>
-      </c>
-      <c r="G24" s="7">
-        <v>287</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0.48636691937188847</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1.6995945169682549</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0.18834719648289891</v>
-      </c>
-      <c r="K24" s="9">
-        <v>2.5822891365205352</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0.28616644412307951</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0.1108189009804959</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0.28616644412307951</v>
-      </c>
-      <c r="O24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="13">
-        <v>590924.57142857148</v>
-      </c>
-      <c r="G25" s="3">
-        <v>287</v>
-      </c>
-      <c r="H25" s="4">
-        <v>92.520382560995898</v>
-      </c>
-      <c r="I25" s="4">
-        <v>85.3168943982906</v>
-      </c>
-      <c r="J25" s="5">
-        <v>78.558525269179242</v>
-      </c>
-      <c r="K25" s="5">
-        <v>1.1777255523060881</v>
-      </c>
-      <c r="L25" s="5">
-        <v>1.084432142232894</v>
-      </c>
-      <c r="M25" s="5">
-        <v>0.9207851015115387</v>
-      </c>
-      <c r="N25" s="5">
-        <v>1</v>
-      </c>
-      <c r="O25" s="4">
-        <f t="shared" si="0"/>
-        <v>-8.443214223289397E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="14">
-        <v>590924.57142857148</v>
-      </c>
-      <c r="G26" s="12">
-        <v>287</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1.3141783279146559</v>
-      </c>
-      <c r="I26" s="8">
-        <v>1.312977207019876</v>
-      </c>
-      <c r="J26" s="9">
-        <v>1.095322499477523</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1.1998094885675481</v>
-      </c>
-      <c r="L26" s="9">
-        <v>1.0009148071180201</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0.83422811425921606</v>
-      </c>
-      <c r="N26" s="9">
-        <v>1</v>
-      </c>
-      <c r="O26" s="8">
-        <f t="shared" si="0"/>
-        <v>-9.1480711802005565E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="15">
-        <v>590924.57142857148</v>
-      </c>
-      <c r="G27" s="13">
-        <v>287</v>
-      </c>
-      <c r="H27" s="4">
-        <v>1.1365323775961631</v>
-      </c>
-      <c r="I27" s="4">
-        <v>3.2170659856731829</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0.21293275093183989</v>
-      </c>
-      <c r="K27" s="5">
-        <v>5.3375179375763029</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0.35328227106859889</v>
-      </c>
-      <c r="M27" s="5">
-        <v>6.6188493453385899E-2</v>
-      </c>
-      <c r="N27" s="5">
-        <v>0.35328227106859889</v>
-      </c>
-      <c r="O27" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="16">
-        <v>563310.05303606112</v>
-      </c>
-      <c r="G28" s="16">
-        <v>23682</v>
-      </c>
-      <c r="L28" s="19">
-        <v>1.46</v>
-      </c>
-      <c r="M28" s="18">
-        <v>1.8757824494845647</v>
-      </c>
-      <c r="N28" s="18">
-        <v>1.8757824494845647</v>
-      </c>
-      <c r="O28" s="20">
-        <f t="shared" si="0"/>
-        <v>0.41578244948456478</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="16">
-        <v>618774.81793103449</v>
-      </c>
-      <c r="G29" s="16">
-        <v>3625</v>
-      </c>
-      <c r="L29" s="21">
-        <v>1.35</v>
-      </c>
-      <c r="M29" s="18">
-        <v>1.9090690073763774</v>
-      </c>
-      <c r="N29" s="18">
-        <v>1.75</v>
-      </c>
-      <c r="O29" s="22">
-        <f t="shared" si="0"/>
-        <v>0.39999999999999991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="16">
-        <v>580871.35372059525</v>
-      </c>
-      <c r="G30" s="16">
-        <v>10415</v>
-      </c>
-      <c r="L30" s="19">
-        <v>1.17</v>
-      </c>
-      <c r="M30" s="18">
-        <v>1.5429749863728117</v>
-      </c>
-      <c r="N30" s="18">
-        <v>1.5429749863728117</v>
-      </c>
-      <c r="O30" s="20">
-        <f t="shared" si="0"/>
-        <v>0.37297498637281179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="16">
-        <v>590682.8455764075</v>
-      </c>
-      <c r="G31" s="16">
-        <v>1865</v>
-      </c>
-      <c r="L31" s="21">
-        <v>1.77</v>
-      </c>
-      <c r="M31" s="18">
-        <v>2.9798324151035613</v>
-      </c>
-      <c r="N31" s="18">
-        <v>2</v>
-      </c>
-      <c r="O31" s="22">
-        <f t="shared" si="0"/>
-        <v>0.22999999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="16">
-        <v>294811.50603251968</v>
-      </c>
-      <c r="G32" s="16">
-        <v>50062</v>
-      </c>
-      <c r="L32" s="19">
-        <v>1.05</v>
-      </c>
-      <c r="M32" s="18">
-        <v>1.1723423661324466</v>
-      </c>
-      <c r="N32" s="18">
-        <v>1.1723423661324466</v>
-      </c>
-      <c r="O32" s="20">
-        <f t="shared" si="0"/>
-        <v>0.12234236613244653</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="16">
-        <v>441292.65545564587</v>
-      </c>
-      <c r="G33" s="16">
-        <v>11566</v>
-      </c>
-      <c r="L33" s="21">
-        <v>1.34</v>
-      </c>
-      <c r="M33" s="18">
-        <v>2.3062879776210434</v>
-      </c>
-      <c r="N33" s="18">
-        <v>2</v>
-      </c>
-      <c r="O33" s="22">
-        <f t="shared" si="0"/>
-        <v>0.65999999999999992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="16">
-        <v>339880.16376328142</v>
-      </c>
-      <c r="G34" s="16">
-        <v>16188</v>
-      </c>
-      <c r="L34" s="19">
-        <v>0.97</v>
-      </c>
-      <c r="M34" s="18">
-        <v>1.0203679822336391</v>
-      </c>
-      <c r="N34" s="18">
-        <v>1.0203679822336391</v>
-      </c>
-      <c r="O34" s="20">
-        <f t="shared" si="0"/>
-        <v>5.0367982233639141E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="16">
-        <v>392581.43689462868</v>
-      </c>
-      <c r="G35" s="16">
-        <v>20442</v>
-      </c>
-      <c r="L35" s="21">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M35" s="18">
-        <v>1.5286165142488224</v>
-      </c>
-      <c r="N35" s="18">
-        <v>1.5286165142488224</v>
-      </c>
-      <c r="O35" s="22">
-        <f t="shared" si="0"/>
-        <v>0.37861651424882248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="16">
-        <v>451565.44890580402</v>
-      </c>
-      <c r="G36" s="16">
-        <v>5255</v>
-      </c>
-      <c r="L36" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="M36" s="18">
-        <v>1.235494837675347</v>
-      </c>
-      <c r="N36" s="18">
-        <v>1.235494837675347</v>
-      </c>
-      <c r="O36" s="20">
-        <f t="shared" si="0"/>
-        <v>0.33549483767534694</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37">
-        <v>563310.05303606112</v>
-      </c>
-      <c r="G37">
-        <v>23682</v>
-      </c>
-      <c r="L37" s="21">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M37" s="18">
-        <v>1.1669628555435489</v>
-      </c>
-      <c r="N37" s="18">
-        <v>1.1669628555435489</v>
-      </c>
-      <c r="O37" s="22">
-        <f t="shared" si="0"/>
-        <v>1.6962855543549038E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38">
-        <v>618774.81793103449</v>
-      </c>
-      <c r="G38">
-        <v>3625</v>
-      </c>
-      <c r="L38" s="19">
-        <v>1.32</v>
-      </c>
-      <c r="M38" s="18">
-        <v>1.2422164313353015</v>
-      </c>
-      <c r="N38" s="18">
-        <v>1.2422164313353015</v>
-      </c>
-      <c r="O38" s="20">
-        <f t="shared" si="0"/>
-        <v>-7.7783568664698599E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39">
-        <v>580871.35372059525</v>
-      </c>
-      <c r="G39">
-        <v>10415</v>
-      </c>
-      <c r="L39" s="21">
-        <v>1.24</v>
-      </c>
-      <c r="M39" s="18">
-        <v>1.0878734295345482</v>
-      </c>
-      <c r="N39" s="18">
-        <v>1.0878734295345482</v>
-      </c>
-      <c r="O39" s="22">
-        <f t="shared" si="0"/>
-        <v>-0.15212657046545175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40">
-        <v>590682.8455764075</v>
-      </c>
-      <c r="G40">
-        <v>1865</v>
-      </c>
-      <c r="L40" s="19">
-        <v>1.17</v>
-      </c>
-      <c r="M40" s="18">
-        <v>1.0843300140348211</v>
-      </c>
-      <c r="N40" s="18">
-        <v>1.0843300140348211</v>
-      </c>
-      <c r="O40" s="20">
-        <f t="shared" si="0"/>
-        <v>-8.566998596517883E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41">
-        <v>294811.50603251968</v>
-      </c>
-      <c r="G41">
-        <v>50062</v>
-      </c>
-      <c r="L41" s="21">
-        <v>1.24</v>
-      </c>
-      <c r="M41" s="18">
-        <v>1.2095924767566302</v>
-      </c>
-      <c r="N41" s="18">
-        <v>1.2095924767566302</v>
-      </c>
-      <c r="O41" s="22">
-        <f t="shared" si="0"/>
-        <v>-3.0407523243369816E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42">
-        <v>441292.65545564587</v>
-      </c>
-      <c r="G42">
-        <v>11566</v>
-      </c>
-      <c r="L42" s="19">
-        <v>0.93</v>
-      </c>
-      <c r="M42" s="18">
-        <v>0.93914652849348201</v>
-      </c>
-      <c r="N42" s="18">
-        <v>0.93914652849348201</v>
-      </c>
-      <c r="O42" s="20">
-        <f t="shared" si="0"/>
-        <v>9.1465284934819646E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43">
-        <v>339880.16376328142</v>
-      </c>
-      <c r="G43">
-        <v>16188</v>
-      </c>
-      <c r="L43" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="M43" s="18">
-        <v>1.350929273771875</v>
-      </c>
-      <c r="N43" s="18">
-        <v>1.350929273771875</v>
-      </c>
-      <c r="O43" s="22">
-        <f t="shared" si="0"/>
-        <v>-4.9070726228124917E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44">
-        <v>392581.43689462868</v>
-      </c>
-      <c r="G44">
-        <v>20442</v>
-      </c>
-      <c r="L44" s="19">
-        <v>1.52</v>
-      </c>
-      <c r="M44" s="18">
-        <v>1.4233355426573264</v>
-      </c>
-      <c r="N44" s="18">
-        <v>1.4233355426573264</v>
-      </c>
-      <c r="O44" s="20">
-        <f t="shared" si="0"/>
-        <v>-9.6664457342673593E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45">
-        <v>451565.44890580402</v>
-      </c>
-      <c r="G45">
-        <v>5255</v>
-      </c>
-      <c r="L45">
-        <v>1.19</v>
-      </c>
-      <c r="M45" s="18">
-        <v>1.1061996645820804</v>
-      </c>
-      <c r="N45" s="18">
-        <v>1.1061996645820804</v>
-      </c>
-      <c r="O45" s="20">
-        <f t="shared" si="0"/>
-        <v>-8.3800335417919536E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:O27" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:G27">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K27">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0.6"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="1.4"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O45">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="-0.5"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7021,23 +7135,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7956,6 +8070,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>